--- a/mereni/8x1_M_F_1_51/8x1_M_F_1_51_results.xlsx
+++ b/mereni/8x1_M_F_1_51/8x1_M_F_1_51_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>V norm</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O312"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +435,7 @@
     <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,116 +469,207 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="J2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.075288574003759</v>
+      </c>
+      <c r="E2">
+        <v>0.61805293625960189</v>
+      </c>
+      <c r="F2">
+        <v>0.1194765082226399</v>
+      </c>
+      <c r="G2">
+        <v>7.9237555930719017E-3</v>
+      </c>
+      <c r="H2">
+        <v>11.94765082226399</v>
+      </c>
+      <c r="I2">
+        <v>0.79237555930719017</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2">
+        <f xml:space="preserve"> AVERAGE(B2:B303)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f xml:space="preserve"> AVERAGE(B7:B308)</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>MAX(B7:B308)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+        <f>MAX(B2:B303)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.19682174642636061</v>
+      </c>
+      <c r="E3">
+        <v>2.8761637373357729</v>
+      </c>
+      <c r="F3">
+        <v>2.1869082936262219E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.6873894068407347E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.1869082936262219</v>
+      </c>
+      <c r="I3">
+        <v>3.6873894068407349</v>
+      </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.71</v>
+        <f>AVERAGE(C2:C303)</f>
+        <v>0.59602649006622521</v>
       </c>
       <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <f>AVERAGE(C7:C308)</f>
-        <v>0.59602649006622521</v>
-      </c>
-      <c r="O3">
-        <f>MAX(C7:C308)</f>
+        <f>MAX(C2:C303)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="J4" t="s">
-        <v>12</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.29504976192635718</v>
+      </c>
+      <c r="E4">
+        <v>3.7999688703330752</v>
+      </c>
+      <c r="F4">
+        <v>3.2783306880706409E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.8717549619654799E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.2783306880706409</v>
+      </c>
+      <c r="I4">
+        <v>4.8717549619654799</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6</v>
+        <f>AVERAGE(D2:D303)</f>
+        <v>0.56645681576947116</v>
       </c>
       <c r="M4">
-        <v>2.89</v>
-      </c>
-      <c r="N4">
-        <f>AVERAGE(D7:D308)</f>
-        <v>0.56645681576947116</v>
-      </c>
-      <c r="O4">
-        <f>MAX(D7:D308)</f>
+        <f>MAX(D2:D303)</f>
         <v>2.7434642370414908</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1.4240728635425479</v>
+      </c>
+      <c r="E5">
+        <v>3.6061237562377499</v>
+      </c>
+      <c r="F5">
+        <v>0.1582303181713943</v>
+      </c>
+      <c r="G5">
+        <v>4.6232355849201927E-2</v>
+      </c>
+      <c r="H5">
+        <v>15.82303181713943</v>
+      </c>
+      <c r="I5">
+        <v>4.6232355849201934</v>
+      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5">
-        <v>5.65</v>
+        <f>AVERAGE(E2:E303)</f>
+        <v>5.5675154937514932</v>
       </c>
       <c r="M5">
-        <v>14.9</v>
-      </c>
-      <c r="N5">
-        <f>AVERAGE(E7:E308)</f>
-        <v>5.5675154937514932</v>
-      </c>
-      <c r="O5">
-        <f>MAX(E7:E308)</f>
+        <f>MAX(E2:E303)</f>
         <v>14.89841108054687</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="J6" t="s">
-        <v>12</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.1255017893557731</v>
+      </c>
+      <c r="E6">
+        <v>1.24936667504543</v>
+      </c>
+      <c r="F6">
+        <v>0.23616686548397481</v>
+      </c>
+      <c r="G6">
+        <v>1.6017521474941399E-2</v>
+      </c>
+      <c r="H6">
+        <v>23.616686548397482</v>
+      </c>
+      <c r="I6">
+        <v>1.6017521474941401</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
       <c r="L6">
-        <v>7.0000000000000007E-2</v>
+        <f>AVERAGE(F2:F303)</f>
+        <v>6.293964619660794E-2</v>
       </c>
       <c r="M6">
-        <v>0.32</v>
-      </c>
-      <c r="N6">
-        <f>AVERAGE(F7:F308)</f>
-        <v>6.293964619660794E-2</v>
-      </c>
-      <c r="O6">
-        <f>MAX(F7:F308)</f>
+        <f>MAX(F2:F303)</f>
         <v>0.30482935967127678</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -592,42 +680,36 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.075288574003759</v>
+        <v>0.97450622703274092</v>
       </c>
       <c r="E7">
-        <v>0.61805293625960189</v>
+        <v>10.08628701644146</v>
       </c>
       <c r="F7">
-        <v>0.1194765082226399</v>
+        <v>0.10827846967030461</v>
       </c>
       <c r="G7">
-        <v>7.9237555930719017E-3</v>
+        <v>0.1293113720056597</v>
       </c>
       <c r="H7">
-        <v>11.94765082226399</v>
+        <v>10.82784696703046</v>
       </c>
       <c r="I7">
-        <v>0.79237555930719017</v>
+        <v>12.931137200565971</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7">
-        <v>7.0000000000000007E-2</v>
+        <f>AVERAGE(G2:G303)</f>
+        <v>7.1378403766044624E-2</v>
       </c>
       <c r="M7">
-        <v>0.19</v>
-      </c>
-      <c r="N7">
-        <f>AVERAGE(G7:G308)</f>
-        <v>7.1378403766044624E-2</v>
-      </c>
-      <c r="O7">
-        <f>MAX(G7:G308)</f>
+        <f>MAX(G2:G303)</f>
         <v>0.19100527026342129</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -635,48 +717,39 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.19682174642636061</v>
+        <v>2.2933333976474679</v>
       </c>
       <c r="E8">
-        <v>2.8761637373357729</v>
+        <v>4.8759639814080984</v>
       </c>
       <c r="F8">
-        <v>2.1869082936262219E-2</v>
+        <v>0.25481482196082977</v>
       </c>
       <c r="G8">
-        <v>3.6873894068407347E-2</v>
+        <v>6.251235873600125E-2</v>
       </c>
       <c r="H8">
-        <v>2.1869082936262219</v>
+        <v>25.481482196082979</v>
       </c>
       <c r="I8">
-        <v>3.6873894068407349</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
+        <v>6.251235873600125</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8">
-        <v>6.62</v>
+        <f>AVERAGE(H2:H303)</f>
+        <v>6.2939646196607972</v>
       </c>
       <c r="M8">
-        <v>32.11</v>
-      </c>
-      <c r="N8">
-        <f>AVERAGE(H7:H308)</f>
-        <v>6.2939646196607972</v>
-      </c>
-      <c r="O8">
-        <f>MAX(H7:H308)</f>
+        <f>MAX(H2:H303)</f>
         <v>30.48293596712768</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,42 +760,36 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.29504976192635718</v>
+        <v>0.13014838774205911</v>
       </c>
       <c r="E9">
-        <v>3.7999688703330752</v>
+        <v>8.5274068854812128</v>
       </c>
       <c r="F9">
-        <v>3.2783306880706409E-2</v>
+        <v>1.44609319713398E-2</v>
       </c>
       <c r="G9">
-        <v>4.8717549619654799E-2</v>
+        <v>0.1093257293010412</v>
       </c>
       <c r="H9">
-        <v>3.2783306880706409</v>
+        <v>1.4460931971339801</v>
       </c>
       <c r="I9">
-        <v>4.8717549619654799</v>
+        <v>10.93257293010412</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
       </c>
       <c r="L9">
-        <v>7.25</v>
+        <f>AVERAGE(I2:I303)</f>
+        <v>7.1378403766044727</v>
       </c>
       <c r="M9">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="N9">
-        <f>AVERAGE(I7:I308)</f>
-        <v>7.1378403766044727</v>
-      </c>
-      <c r="O9">
-        <f>MAX(I7:I308)</f>
+        <f>MAX(I2:I303)</f>
         <v>19.100527026342139</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -730,28 +797,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.4240728635425479</v>
+        <v>1.105527662009923</v>
       </c>
       <c r="E10">
-        <v>3.6061237562377499</v>
+        <v>9.300392313254747</v>
       </c>
       <c r="F10">
-        <v>0.1582303181713943</v>
+        <v>0.1228364068899914</v>
       </c>
       <c r="G10">
-        <v>4.6232355849201927E-2</v>
+        <v>0.1192357988878814</v>
       </c>
       <c r="H10">
-        <v>15.82303181713943</v>
+        <v>12.283640688999141</v>
       </c>
       <c r="I10">
-        <v>4.6232355849201934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11.92357988878814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -759,28 +826,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2.1255017893557731</v>
+        <v>0.63411304441611804</v>
       </c>
       <c r="E11">
-        <v>1.24936667504543</v>
+        <v>10.360940511585479</v>
       </c>
       <c r="F11">
-        <v>0.23616686548397481</v>
+        <v>7.0457004935124301E-2</v>
       </c>
       <c r="G11">
-        <v>1.6017521474941399E-2</v>
+        <v>0.13283257066135221</v>
       </c>
       <c r="H11">
-        <v>23.616686548397482</v>
+        <v>7.0457004935124301</v>
       </c>
       <c r="I11">
-        <v>1.6017521474941401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>13.283257066135221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -791,25 +858,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.97450622703274092</v>
+        <v>0.2301238876685536</v>
       </c>
       <c r="E12">
-        <v>10.08628701644146</v>
+        <v>12.84581087564062</v>
       </c>
       <c r="F12">
-        <v>0.10827846967030461</v>
+        <v>2.5569320852061539E-2</v>
       </c>
       <c r="G12">
-        <v>0.1293113720056597</v>
+        <v>0.16468988302103371</v>
       </c>
       <c r="H12">
-        <v>10.82784696703046</v>
+        <v>2.5569320852061539</v>
       </c>
       <c r="I12">
-        <v>12.931137200565971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16.468988302103369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -817,28 +884,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2.2933333976474679</v>
+        <v>0.97188340040379728</v>
       </c>
       <c r="E13">
-        <v>4.8759639814080984</v>
+        <v>6.3473217563694959</v>
       </c>
       <c r="F13">
-        <v>0.25481482196082977</v>
+        <v>0.1079870444893108</v>
       </c>
       <c r="G13">
-        <v>6.251235873600125E-2</v>
+        <v>8.1375919953455056E-2</v>
       </c>
       <c r="H13">
-        <v>25.481482196082979</v>
+        <v>10.79870444893109</v>
       </c>
       <c r="I13">
-        <v>6.251235873600125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.137591995345506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -849,25 +916,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.13014838774205911</v>
+        <v>0.28180807236245808</v>
       </c>
       <c r="E14">
-        <v>8.5274068854812128</v>
+        <v>4.9841662594163552</v>
       </c>
       <c r="F14">
-        <v>1.44609319713398E-2</v>
+        <v>3.131200804027312E-2</v>
       </c>
       <c r="G14">
-        <v>0.1093257293010412</v>
+        <v>6.389956742841485E-2</v>
       </c>
       <c r="H14">
-        <v>1.4460931971339801</v>
+        <v>3.131200804027312</v>
       </c>
       <c r="I14">
-        <v>10.93257293010412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>6.389956742841485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -878,25 +945,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.105527662009923</v>
+        <v>1.17980961271128</v>
       </c>
       <c r="E15">
-        <v>9.300392313254747</v>
+        <v>3.289593837123832</v>
       </c>
       <c r="F15">
-        <v>0.1228364068899914</v>
+        <v>0.13108995696792</v>
       </c>
       <c r="G15">
-        <v>0.1192357988878814</v>
+        <v>4.217427996312606E-2</v>
       </c>
       <c r="H15">
-        <v>12.283640688999141</v>
+        <v>13.108995696792</v>
       </c>
       <c r="I15">
-        <v>11.92357988878814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.2174279963126056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -904,25 +971,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.63411304441611804</v>
+        <v>0.14079792233196109</v>
       </c>
       <c r="E16">
-        <v>10.360940511585479</v>
+        <v>9.3876965027932755</v>
       </c>
       <c r="F16">
-        <v>7.0457004935124301E-2</v>
+        <v>1.5644213592440059E-2</v>
       </c>
       <c r="G16">
-        <v>0.13283257066135221</v>
+        <v>0.12035508336914461</v>
       </c>
       <c r="H16">
-        <v>7.0457004935124301</v>
+        <v>1.5644213592440059</v>
       </c>
       <c r="I16">
-        <v>13.283257066135221</v>
+        <v>12.035508336914461</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -933,25 +1000,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2301238876685536</v>
+        <v>0.96129817497225734</v>
       </c>
       <c r="E17">
-        <v>12.84581087564062</v>
+        <v>9.5701646706585919</v>
       </c>
       <c r="F17">
-        <v>2.5569320852061539E-2</v>
+        <v>0.10681090833025091</v>
       </c>
       <c r="G17">
-        <v>0.16468988302103371</v>
+        <v>0.1226944188545973</v>
       </c>
       <c r="H17">
-        <v>2.5569320852061539</v>
+        <v>10.68109083302509</v>
       </c>
       <c r="I17">
-        <v>16.468988302103369</v>
+        <v>12.269441885459729</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -962,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.97188340040379728</v>
+        <v>1.839548810965199</v>
       </c>
       <c r="E18">
-        <v>6.3473217563694959</v>
+        <v>6.5591943131230011</v>
       </c>
       <c r="F18">
-        <v>0.1079870444893108</v>
+        <v>0.20439431232946659</v>
       </c>
       <c r="G18">
-        <v>8.1375919953455056E-2</v>
+        <v>8.409223478362815E-2</v>
       </c>
       <c r="H18">
-        <v>10.79870444893109</v>
+        <v>20.43943123294666</v>
       </c>
       <c r="I18">
-        <v>8.137591995345506</v>
+        <v>8.409223478362815</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -991,25 +1058,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.28180807236245808</v>
+        <v>1.6477245048838931</v>
       </c>
       <c r="E19">
-        <v>4.9841662594163552</v>
+        <v>2.494143136045011</v>
       </c>
       <c r="F19">
-        <v>3.131200804027312E-2</v>
+        <v>0.18308050054265479</v>
       </c>
       <c r="G19">
-        <v>6.389956742841485E-2</v>
+        <v>3.1976194051859141E-2</v>
       </c>
       <c r="H19">
-        <v>3.131200804027312</v>
+        <v>18.308050054265479</v>
       </c>
       <c r="I19">
-        <v>6.389956742841485</v>
+        <v>3.1976194051859141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1023,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.17980961271128</v>
+        <v>1.2322485574612441</v>
       </c>
       <c r="E20">
-        <v>3.289593837123832</v>
+        <v>0.45892742084024007</v>
       </c>
       <c r="F20">
-        <v>0.13108995696792</v>
+        <v>0.13691650638458261</v>
       </c>
       <c r="G20">
-        <v>4.217427996312606E-2</v>
+        <v>5.8836848825671861E-3</v>
       </c>
       <c r="H20">
-        <v>13.108995696792</v>
+        <v>13.69165063845826</v>
       </c>
       <c r="I20">
-        <v>4.2174279963126056</v>
+        <v>0.58836848825671861</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1052,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.14079792233196109</v>
+        <v>0.49862127835990577</v>
       </c>
       <c r="E21">
-        <v>9.3876965027932755</v>
+        <v>6.3767261452576776</v>
       </c>
       <c r="F21">
-        <v>1.5644213592440059E-2</v>
+        <v>5.540236426221179E-2</v>
       </c>
       <c r="G21">
-        <v>0.12035508336914461</v>
+        <v>8.1752899298175308E-2</v>
       </c>
       <c r="H21">
-        <v>1.5644213592440059</v>
+        <v>5.5402364262211794</v>
       </c>
       <c r="I21">
-        <v>12.035508336914461</v>
+        <v>8.1752899298175308</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1081,22 +1148,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.96129817497225734</v>
+        <v>0.96831653496103343</v>
       </c>
       <c r="E22">
-        <v>9.5701646706585919</v>
+        <v>4.6934958135427749</v>
       </c>
       <c r="F22">
-        <v>0.10681090833025091</v>
+        <v>0.1075907261067816</v>
       </c>
       <c r="G22">
-        <v>0.1226944188545973</v>
+        <v>6.0173023250548408E-2</v>
       </c>
       <c r="H22">
-        <v>10.68109083302509</v>
+        <v>10.75907261067815</v>
       </c>
       <c r="I22">
-        <v>12.269441885459729</v>
+        <v>6.0173023250548408</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1110,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.839548810965199</v>
+        <v>0.49862127835990577</v>
       </c>
       <c r="E23">
-        <v>6.5591943131230011</v>
+        <v>6.3767261452576776</v>
       </c>
       <c r="F23">
-        <v>0.20439431232946659</v>
+        <v>5.540236426221179E-2</v>
       </c>
       <c r="G23">
-        <v>8.409223478362815E-2</v>
+        <v>8.1752899298175308E-2</v>
       </c>
       <c r="H23">
-        <v>20.43943123294666</v>
+        <v>5.5402364262211794</v>
       </c>
       <c r="I23">
-        <v>8.409223478362815</v>
+        <v>8.1752899298175308</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1139,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.6477245048838931</v>
+        <v>1.1601408410423379</v>
       </c>
       <c r="E24">
-        <v>2.494143136045011</v>
+        <v>8.7585469906207649</v>
       </c>
       <c r="F24">
-        <v>0.18308050054265479</v>
+        <v>0.1289045378935931</v>
       </c>
       <c r="G24">
-        <v>3.1976194051859141E-2</v>
+        <v>0.1122890639823175</v>
       </c>
       <c r="H24">
-        <v>18.308050054265479</v>
+        <v>12.890453789359309</v>
       </c>
       <c r="I24">
-        <v>3.1976194051859141</v>
+        <v>11.22890639823175</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1165,25 +1232,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1.2322485574612441</v>
+        <v>0.18103346689808569</v>
       </c>
       <c r="E25">
-        <v>0.45892742084024007</v>
+        <v>7.3953914936676313</v>
       </c>
       <c r="F25">
-        <v>0.13691650638458261</v>
+        <v>2.011482965534284E-2</v>
       </c>
       <c r="G25">
-        <v>5.8836848825671861E-3</v>
+        <v>9.4812711457277321E-2</v>
       </c>
       <c r="H25">
-        <v>13.69165063845826</v>
+        <v>2.0114829655342841</v>
       </c>
       <c r="I25">
-        <v>0.58836848825671861</v>
+        <v>9.4812711457277317</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1197,22 +1264,22 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.49862127835990577</v>
+        <v>0.8458093304784926</v>
       </c>
       <c r="E26">
-        <v>6.3767261452576776</v>
+        <v>0.61746380642367882</v>
       </c>
       <c r="F26">
-        <v>5.540236426221179E-2</v>
+        <v>9.3978814497610252E-2</v>
       </c>
       <c r="G26">
-        <v>8.1752899298175308E-2</v>
+        <v>7.9162026464574264E-3</v>
       </c>
       <c r="H26">
-        <v>5.5402364262211794</v>
+        <v>9.3978814497610248</v>
       </c>
       <c r="I26">
-        <v>8.1752899298175308</v>
+        <v>0.79162026464574264</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1226,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.96831653496103343</v>
+        <v>0.58187730797828241</v>
       </c>
       <c r="E27">
-        <v>4.6934958135427749</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F27">
-        <v>0.1075907261067816</v>
+        <v>6.4653034219809169E-2</v>
       </c>
       <c r="G27">
-        <v>6.0173023250548408E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H27">
-        <v>10.75907261067815</v>
+        <v>6.4653034219809156</v>
       </c>
       <c r="I27">
-        <v>6.0173023250548408</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1252,25 +1319,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.49862127835990577</v>
+        <v>4.2106852292443257E-2</v>
       </c>
       <c r="E28">
-        <v>6.3767261452576776</v>
+        <v>8.7585469906207649</v>
       </c>
       <c r="F28">
-        <v>5.540236426221179E-2</v>
+        <v>4.6785391436048318E-3</v>
       </c>
       <c r="G28">
-        <v>8.1752899298175308E-2</v>
+        <v>0.1122890639823175</v>
       </c>
       <c r="H28">
-        <v>5.5402364262211794</v>
+        <v>0.46785391436048318</v>
       </c>
       <c r="I28">
-        <v>8.1752899298175308</v>
+        <v>11.22890639823175</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1281,25 +1348,25 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1.1601408410423379</v>
+        <v>0.18103346689808569</v>
       </c>
       <c r="E29">
-        <v>8.7585469906207649</v>
+        <v>10.12170248757389</v>
       </c>
       <c r="F29">
-        <v>0.1289045378935931</v>
+        <v>2.011482965534284E-2</v>
       </c>
       <c r="G29">
-        <v>0.1122890639823175</v>
+        <v>0.12976541650735751</v>
       </c>
       <c r="H29">
-        <v>12.890453789359309</v>
+        <v>2.0114829655342841</v>
       </c>
       <c r="I29">
-        <v>11.22890639823175</v>
+        <v>12.976541650735751</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1310,25 +1377,25 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.18103346689808569</v>
+        <v>0.6365419121980489</v>
       </c>
       <c r="E30">
-        <v>7.3953914936676313</v>
+        <v>0.39070424344469501</v>
       </c>
       <c r="F30">
-        <v>2.011482965534284E-2</v>
+        <v>7.0726879133116538E-2</v>
       </c>
       <c r="G30">
-        <v>9.4812711457277321E-2</v>
+        <v>5.009028762111456E-3</v>
       </c>
       <c r="H30">
-        <v>2.0114829655342841</v>
+        <v>7.072687913311654</v>
       </c>
       <c r="I30">
-        <v>9.4812711457277317</v>
+        <v>0.5009028762111456</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1342,22 +1409,22 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.8458093304784926</v>
+        <v>0.58703215540165665</v>
       </c>
       <c r="E31">
-        <v>0.61746380642367882</v>
+        <v>6.0456704804548016</v>
       </c>
       <c r="F31">
-        <v>9.3978814497610252E-2</v>
+        <v>6.5225795044628498E-2</v>
       </c>
       <c r="G31">
-        <v>7.9162026464574264E-3</v>
+        <v>7.7508595903266697E-2</v>
       </c>
       <c r="H31">
-        <v>9.3978814497610248</v>
+        <v>6.5225795044628496</v>
       </c>
       <c r="I31">
-        <v>0.79162026464574264</v>
+        <v>7.7508595903266686</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1368,25 +1435,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.58187730797828241</v>
+        <v>0.6365419121980489</v>
       </c>
       <c r="E32">
-        <v>4.5349594279593362</v>
+        <v>0.39070424344469501</v>
       </c>
       <c r="F32">
-        <v>6.4653034219809169E-2</v>
+        <v>7.0726879133116538E-2</v>
       </c>
       <c r="G32">
-        <v>5.8140505486658167E-2</v>
+        <v>5.009028762111456E-3</v>
       </c>
       <c r="H32">
-        <v>6.4653034219809156</v>
+        <v>7.072687913311654</v>
       </c>
       <c r="I32">
-        <v>5.8140505486658167</v>
+        <v>0.5009028762111456</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1397,25 +1464,25 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4.2106852292443257E-2</v>
+        <v>0.44477281061045337</v>
       </c>
       <c r="E33">
-        <v>8.7585469906207649</v>
+        <v>9.36263755980751</v>
       </c>
       <c r="F33">
-        <v>4.6785391436048318E-3</v>
+        <v>4.9419201178939283E-2</v>
       </c>
       <c r="G33">
-        <v>0.1122890639823175</v>
+        <v>0.1200338148693271</v>
       </c>
       <c r="H33">
-        <v>0.46785391436048318</v>
+        <v>4.9419201178939272</v>
       </c>
       <c r="I33">
-        <v>11.22890639823175</v>
+        <v>12.0033814869327</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1429,22 +1496,22 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.18103346689808569</v>
+        <v>0.6365419121980489</v>
       </c>
       <c r="E34">
-        <v>10.12170248757389</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F34">
-        <v>2.011482965534284E-2</v>
+        <v>7.0726879133116538E-2</v>
       </c>
       <c r="G34">
-        <v>0.12976541650735751</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H34">
-        <v>2.0114829655342841</v>
+        <v>7.072687913311654</v>
       </c>
       <c r="I34">
-        <v>12.976541650735751</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1458,22 +1525,22 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.6365419121980489</v>
+        <v>0.44477281061045337</v>
       </c>
       <c r="E35">
-        <v>0.39070424344469501</v>
+        <v>9.36263755980751</v>
       </c>
       <c r="F35">
-        <v>7.0726879133116538E-2</v>
+        <v>4.9419201178939283E-2</v>
       </c>
       <c r="G35">
-        <v>5.009028762111456E-3</v>
+        <v>0.1200338148693271</v>
       </c>
       <c r="H35">
-        <v>7.072687913311654</v>
+        <v>4.9419201178939272</v>
       </c>
       <c r="I35">
-        <v>0.5009028762111456</v>
+        <v>12.0033814869327</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1487,22 +1554,22 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.58703215540165665</v>
+        <v>0.97640753274021241</v>
       </c>
       <c r="E36">
-        <v>6.0456704804548016</v>
+        <v>1.5380671833683961</v>
       </c>
       <c r="F36">
-        <v>6.5225795044628498E-2</v>
+        <v>0.1084897258600236</v>
       </c>
       <c r="G36">
-        <v>7.7508595903266697E-2</v>
+        <v>1.971881004318457E-2</v>
       </c>
       <c r="H36">
-        <v>6.5225795044628496</v>
+        <v>10.848972586002359</v>
       </c>
       <c r="I36">
-        <v>7.7508595903266686</v>
+        <v>1.9718810043184569</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1516,22 +1583,22 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.6365419121980489</v>
+        <v>0.2434642370414912</v>
       </c>
       <c r="E37">
-        <v>0.39070424344469501</v>
+        <v>8.5723321149103189</v>
       </c>
       <c r="F37">
-        <v>7.0726879133116538E-2</v>
+        <v>2.705158189349904E-2</v>
       </c>
       <c r="G37">
-        <v>5.009028762111456E-3</v>
+        <v>0.1099016937809016</v>
       </c>
       <c r="H37">
-        <v>7.072687913311654</v>
+        <v>2.705158189349905</v>
       </c>
       <c r="I37">
-        <v>0.5009028762111456</v>
+        <v>10.99016937809016</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1542,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.44477281061045337</v>
+        <v>0.52057069318609317</v>
       </c>
       <c r="E38">
-        <v>9.36263755980751</v>
+        <v>13.15350563777117</v>
       </c>
       <c r="F38">
-        <v>4.9419201178939283E-2</v>
+        <v>5.7841188131788117E-2</v>
       </c>
       <c r="G38">
-        <v>0.1200338148693271</v>
+        <v>0.16863468766373299</v>
       </c>
       <c r="H38">
-        <v>4.9419201178939272</v>
+        <v>5.7841188131788126</v>
       </c>
       <c r="I38">
-        <v>12.0033814869327</v>
+        <v>16.863468766373298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1571,25 +1638,25 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0.6365419121980489</v>
+        <v>0.82460306712568121</v>
       </c>
       <c r="E39">
-        <v>11.70063671746491</v>
+        <v>0.64514229655068434</v>
       </c>
       <c r="F39">
-        <v>7.0726879133116538E-2</v>
+        <v>9.1622563013964597E-2</v>
       </c>
       <c r="G39">
-        <v>0.15000816304442191</v>
+        <v>8.2710550839831254E-3</v>
       </c>
       <c r="H39">
-        <v>7.072687913311654</v>
+        <v>9.1622563013964591</v>
       </c>
       <c r="I39">
-        <v>15.000816304442189</v>
+        <v>0.82710550839831254</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1603,22 +1670,22 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.44477281061045337</v>
+        <v>0.74346423704149123</v>
       </c>
       <c r="E40">
-        <v>9.36263755980751</v>
+        <v>8.5723321149103189</v>
       </c>
       <c r="F40">
-        <v>4.9419201178939283E-2</v>
+        <v>8.2607137449054568E-2</v>
       </c>
       <c r="G40">
-        <v>0.1200338148693271</v>
+        <v>0.1099016937809016</v>
       </c>
       <c r="H40">
-        <v>4.9419201178939272</v>
+        <v>8.2607137449054573</v>
       </c>
       <c r="I40">
-        <v>12.0033814869327</v>
+        <v>10.99016937809016</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1632,22 +1699,22 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.97640753274021241</v>
+        <v>0.36149822579138607</v>
       </c>
       <c r="E41">
-        <v>1.5380671833683961</v>
+        <v>4.7101934736286744</v>
       </c>
       <c r="F41">
-        <v>0.1084897258600236</v>
+        <v>4.0166469532376237E-2</v>
       </c>
       <c r="G41">
-        <v>1.971881004318457E-2</v>
+        <v>6.038709581575219E-2</v>
       </c>
       <c r="H41">
-        <v>10.848972586002359</v>
+        <v>4.0166469532376237</v>
       </c>
       <c r="I41">
-        <v>1.9718810043184569</v>
+        <v>6.038709581575219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1658,25 +1725,25 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.2434642370414912</v>
+        <v>0.1386046819359876</v>
       </c>
       <c r="E42">
-        <v>8.5723321149103189</v>
+        <v>0.12901995076782311</v>
       </c>
       <c r="F42">
-        <v>2.705158189349904E-2</v>
+        <v>1.540052021510974E-2</v>
       </c>
       <c r="G42">
-        <v>0.1099016937809016</v>
+        <v>1.65410193292076E-3</v>
       </c>
       <c r="H42">
-        <v>2.705158189349905</v>
+        <v>1.5400520215109741</v>
       </c>
       <c r="I42">
-        <v>10.99016937809016</v>
+        <v>0.16541019329207601</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1687,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.52057069318609317</v>
+        <v>1.0205706931860929</v>
       </c>
       <c r="E43">
         <v>13.15350563777117</v>
       </c>
       <c r="F43">
-        <v>5.7841188131788117E-2</v>
+        <v>0.11339674368734361</v>
       </c>
       <c r="G43">
         <v>0.16863468766373299</v>
       </c>
       <c r="H43">
-        <v>5.7841188131788126</v>
+        <v>11.339674368734361</v>
       </c>
       <c r="I43">
         <v>16.863468766373298</v>
@@ -1716,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.82460306712568121</v>
+        <v>0.94974746830583268</v>
       </c>
       <c r="E44">
-        <v>0.64514229655068434</v>
+        <v>13</v>
       </c>
       <c r="F44">
-        <v>9.1622563013964597E-2</v>
+        <v>0.10552749647842589</v>
       </c>
       <c r="G44">
-        <v>8.2710550839831254E-3</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H44">
-        <v>9.1622563013964591</v>
+        <v>10.552749647842591</v>
       </c>
       <c r="I44">
-        <v>0.82710550839831254</v>
+        <v>16.666666666666671</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1748,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.74346423704149123</v>
+        <v>0.65767779941458615</v>
       </c>
       <c r="E45">
-        <v>8.5723321149103189</v>
+        <v>13.927667885089679</v>
       </c>
       <c r="F45">
-        <v>8.2607137449054568E-2</v>
+        <v>7.3075311046065128E-2</v>
       </c>
       <c r="G45">
-        <v>0.1099016937809016</v>
+        <v>0.1785598446806369</v>
       </c>
       <c r="H45">
-        <v>8.2607137449054573</v>
+        <v>7.3075311046065128</v>
       </c>
       <c r="I45">
-        <v>10.99016937809016</v>
+        <v>17.855984468063689</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1777,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.36149822579138607</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>4.7101934736286744</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>4.0166469532376237E-2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>6.038709581575219E-2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>4.0166469532376237</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>6.038709581575219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1806,22 +1873,22 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.1386046819359876</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.12901995076782311</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.540052021510974E-2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1.65410193292076E-3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1.5400520215109741</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.16541019329207601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1835,22 +1902,22 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1.0205706931860929</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>13.15350563777117</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.11339674368734361</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.16863468766373299</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>11.339674368734361</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>16.863468766373298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -1864,22 +1931,22 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.94974746830583268</v>
+        <v>2.0358887653041631</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>12.69360892817541</v>
       </c>
       <c r="F49">
-        <v>0.10552749647842589</v>
+        <v>0.2262098628115736</v>
       </c>
       <c r="G49">
-        <v>0.16666666666666671</v>
+        <v>0.16273857600224881</v>
       </c>
       <c r="H49">
-        <v>10.552749647842591</v>
+        <v>22.620986281157361</v>
       </c>
       <c r="I49">
-        <v>16.666666666666671</v>
+        <v>16.273857600224879</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1890,25 +1957,25 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0.65767779941458615</v>
+        <v>1.338309543664733</v>
       </c>
       <c r="E50">
-        <v>13.927667885089679</v>
+        <v>7.3450337629898934</v>
       </c>
       <c r="F50">
-        <v>7.3075311046065128E-2</v>
+        <v>0.14870106040719261</v>
       </c>
       <c r="G50">
-        <v>0.1785598446806369</v>
+        <v>9.41670995255115E-2</v>
       </c>
       <c r="H50">
-        <v>7.3075311046065128</v>
+        <v>14.870106040719261</v>
       </c>
       <c r="I50">
-        <v>17.855984468063689</v>
+        <v>9.41670995255115</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -1919,25 +1986,25 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2.4546345947497188</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>6.4422482168572941</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.27273717719441332</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>8.2592925857144728E-2</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>27.273717719441329</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>8.2592925857144728</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -1948,25 +2015,25 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.94974746830583268</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.10552749647842589</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>10.552749647842591</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>16.666666666666671</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -1977,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.75477072509240761</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>9.1656265348972834</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>8.3863413899156414E-2</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.11750803249868309</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>8.3863413899156409</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>11.75080324986831</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2009,22 +2076,22 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>2.0358887653041631</v>
+        <v>0.29166588375811298</v>
       </c>
       <c r="E54">
-        <v>12.69360892817541</v>
+        <v>5.1005753578192934</v>
       </c>
       <c r="F54">
-        <v>0.2262098628115736</v>
+        <v>3.2407320417568108E-2</v>
       </c>
       <c r="G54">
-        <v>0.16273857600224881</v>
+        <v>6.5391991766914029E-2</v>
       </c>
       <c r="H54">
-        <v>22.620986281157361</v>
+        <v>3.2407320417568108</v>
       </c>
       <c r="I54">
-        <v>16.273857600224879</v>
+        <v>6.5391991766914028</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,25 +2102,25 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1.338309543664733</v>
+        <v>0.44477281061045337</v>
       </c>
       <c r="E55">
-        <v>7.3450337629898934</v>
+        <v>9.36263755980751</v>
       </c>
       <c r="F55">
-        <v>0.14870106040719261</v>
+        <v>4.9419201178939283E-2</v>
       </c>
       <c r="G55">
-        <v>9.41670995255115E-2</v>
+        <v>0.1200338148693271</v>
       </c>
       <c r="H55">
-        <v>14.870106040719261</v>
+        <v>4.9419201178939272</v>
       </c>
       <c r="I55">
-        <v>9.41670995255115</v>
+        <v>12.0033814869327</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2064,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2.4546345947497188</v>
+        <v>0.97766426894780656</v>
       </c>
       <c r="E56">
-        <v>6.4422482168572941</v>
+        <v>13.74680005775814</v>
       </c>
       <c r="F56">
-        <v>0.27273717719441332</v>
+        <v>0.108629363216423</v>
       </c>
       <c r="G56">
-        <v>8.2592925857144728E-2</v>
+        <v>0.17624102638151459</v>
       </c>
       <c r="H56">
-        <v>27.273717719441329</v>
+        <v>10.8629363216423</v>
       </c>
       <c r="I56">
-        <v>8.2592925857144728</v>
+        <v>17.624102638151459</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2093,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.94974746830583268</v>
+        <v>0.29166588375811298</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>5.1005753578192934</v>
       </c>
       <c r="F57">
-        <v>0.10552749647842589</v>
+        <v>3.2407320417568108E-2</v>
       </c>
       <c r="G57">
-        <v>0.16666666666666671</v>
+        <v>6.5391991766914029E-2</v>
       </c>
       <c r="H57">
-        <v>10.552749647842591</v>
+        <v>3.2407320417568108</v>
       </c>
       <c r="I57">
-        <v>16.666666666666671</v>
+        <v>6.5391991766914028</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2122,25 +2189,25 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.75477072509240761</v>
+        <v>0.8458093304784926</v>
       </c>
       <c r="E58">
-        <v>9.1656265348972834</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F58">
-        <v>8.3863413899156414E-2</v>
+        <v>9.3978814497610252E-2</v>
       </c>
       <c r="G58">
-        <v>0.11750803249868309</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H58">
-        <v>8.3863413899156409</v>
+        <v>9.3978814497610248</v>
       </c>
       <c r="I58">
-        <v>11.75080324986831</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2151,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.29166588375811298</v>
+        <v>0.58187730797828241</v>
       </c>
       <c r="E59">
-        <v>5.1005753578192934</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F59">
-        <v>3.2407320417568108E-2</v>
+        <v>6.4653034219809169E-2</v>
       </c>
       <c r="G59">
-        <v>6.5391991766914029E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H59">
-        <v>3.2407320417568108</v>
+        <v>6.4653034219809156</v>
       </c>
       <c r="I59">
-        <v>6.5391991766914028</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2183,22 +2250,22 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.44477281061045337</v>
+        <v>0.58187730797828241</v>
       </c>
       <c r="E60">
-        <v>9.36263755980751</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F60">
-        <v>4.9419201178939283E-2</v>
+        <v>6.4653034219809169E-2</v>
       </c>
       <c r="G60">
-        <v>0.1200338148693271</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H60">
-        <v>4.9419201178939272</v>
+        <v>6.4653034219809156</v>
       </c>
       <c r="I60">
-        <v>12.0033814869327</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2212,22 +2279,22 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.97766426894780656</v>
+        <v>0.58187730797828241</v>
       </c>
       <c r="E61">
-        <v>13.74680005775814</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F61">
-        <v>0.108629363216423</v>
+        <v>6.4653034219809169E-2</v>
       </c>
       <c r="G61">
-        <v>0.17624102638151459</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H61">
-        <v>10.8629363216423</v>
+        <v>6.4653034219809156</v>
       </c>
       <c r="I61">
-        <v>17.624102638151459</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2241,22 +2308,22 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.29166588375811298</v>
+        <v>0.14079792233196109</v>
       </c>
       <c r="E62">
-        <v>5.1005753578192934</v>
+        <v>9.3876965027932755</v>
       </c>
       <c r="F62">
-        <v>3.2407320417568108E-2</v>
+        <v>1.5644213592440059E-2</v>
       </c>
       <c r="G62">
-        <v>6.5391991766914029E-2</v>
+        <v>0.12035508336914461</v>
       </c>
       <c r="H62">
-        <v>3.2407320417568108</v>
+        <v>1.5644213592440059</v>
       </c>
       <c r="I62">
-        <v>6.5391991766914028</v>
+        <v>12.035508336914461</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2270,22 +2337,22 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.8458093304784926</v>
+        <v>0.30603887479265351</v>
       </c>
       <c r="E63">
-        <v>3.781241548571856</v>
+        <v>3.6061237562377499</v>
       </c>
       <c r="F63">
-        <v>9.3978814497610252E-2</v>
+        <v>3.4004319421405922E-2</v>
       </c>
       <c r="G63">
-        <v>4.8477455750921217E-2</v>
+        <v>4.6232355849201927E-2</v>
       </c>
       <c r="H63">
-        <v>9.3978814497610248</v>
+        <v>3.400431942140592</v>
       </c>
       <c r="I63">
-        <v>4.8477455750921212</v>
+        <v>4.6232355849201934</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2299,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.58187730797828241</v>
+        <v>1.446093819432912</v>
       </c>
       <c r="E64">
-        <v>4.5349594279593362</v>
+        <v>3.448719352543193</v>
       </c>
       <c r="F64">
-        <v>6.4653034219809169E-2</v>
+        <v>0.16067709104810141</v>
       </c>
       <c r="G64">
-        <v>5.8140505486658167E-2</v>
+        <v>4.4214350673630658E-2</v>
       </c>
       <c r="H64">
-        <v>6.4653034219809156</v>
+        <v>16.067709104810131</v>
       </c>
       <c r="I64">
-        <v>5.8140505486658167</v>
+        <v>4.4214350673630669</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2328,22 +2395,22 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0.58187730797828241</v>
+        <v>0.29504976192635718</v>
       </c>
       <c r="E65">
-        <v>4.5349594279593362</v>
+        <v>10.236274597593409</v>
       </c>
       <c r="F65">
-        <v>6.4653034219809169E-2</v>
+        <v>3.2783306880706409E-2</v>
       </c>
       <c r="G65">
-        <v>5.8140505486658167E-2</v>
+        <v>0.1312342897127361</v>
       </c>
       <c r="H65">
-        <v>6.4653034219809156</v>
+        <v>3.2783306880706409</v>
       </c>
       <c r="I65">
-        <v>5.8140505486658167</v>
+        <v>13.12342897127361</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2354,25 +2421,25 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0.58187730797828241</v>
+        <v>1.4240728635425479</v>
       </c>
       <c r="E66">
-        <v>4.5349594279593362</v>
+        <v>3.6061237562377499</v>
       </c>
       <c r="F66">
-        <v>6.4653034219809169E-2</v>
+        <v>0.1582303181713943</v>
       </c>
       <c r="G66">
-        <v>5.8140505486658167E-2</v>
+        <v>4.6232355849201927E-2</v>
       </c>
       <c r="H66">
-        <v>6.4653034219809156</v>
+        <v>15.82303181713943</v>
       </c>
       <c r="I66">
-        <v>5.8140505486658167</v>
+        <v>4.6232355849201934</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2383,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.14079792233196109</v>
+        <v>0.47824749399485528</v>
       </c>
       <c r="E67">
-        <v>9.3876965027932755</v>
+        <v>2.3946385330008009</v>
       </c>
       <c r="F67">
-        <v>1.5644213592440059E-2</v>
+        <v>5.3138610443872802E-2</v>
       </c>
       <c r="G67">
-        <v>0.12035508336914461</v>
+        <v>3.07004940128307E-2</v>
       </c>
       <c r="H67">
-        <v>1.5644213592440059</v>
+        <v>5.3138610443872807</v>
       </c>
       <c r="I67">
-        <v>12.035508336914461</v>
+        <v>3.0700494012830699</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2415,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.30603887479265351</v>
+        <v>4.702095229767167E-4</v>
       </c>
       <c r="E68">
-        <v>3.6061237562377499</v>
+        <v>3.6394149940003828</v>
       </c>
       <c r="F68">
-        <v>3.4004319421405922E-2</v>
+        <v>5.2245502553005529E-5</v>
       </c>
       <c r="G68">
-        <v>4.6232355849201927E-2</v>
+        <v>4.6659166589748453E-2</v>
       </c>
       <c r="H68">
-        <v>3.400431942140592</v>
+        <v>5.2245502553005529E-3</v>
       </c>
       <c r="I68">
-        <v>4.6232355849201934</v>
+        <v>4.6659166589748446</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2444,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1.446093819432912</v>
+        <v>0.80667461874104607</v>
       </c>
       <c r="E69">
-        <v>3.448719352543193</v>
+        <v>6.4596897100787913</v>
       </c>
       <c r="F69">
-        <v>0.16067709104810141</v>
+        <v>8.9630513193449612E-2</v>
       </c>
       <c r="G69">
-        <v>4.4214350673630658E-2</v>
+        <v>8.2816534744599823E-2</v>
       </c>
       <c r="H69">
-        <v>16.067709104810131</v>
+        <v>8.9630513193449612</v>
       </c>
       <c r="I69">
-        <v>4.4214350673630669</v>
+        <v>8.2816534744599828</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2473,22 +2540,22 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.29504976192635718</v>
+        <v>0.60676718827515685</v>
       </c>
       <c r="E70">
-        <v>10.236274597593409</v>
+        <v>1.740425256657524</v>
       </c>
       <c r="F70">
-        <v>3.2783306880706409E-2</v>
+        <v>6.7418576475017478E-2</v>
       </c>
       <c r="G70">
-        <v>0.1312342897127361</v>
+        <v>2.231314431612208E-2</v>
       </c>
       <c r="H70">
-        <v>3.2783306880706409</v>
+        <v>6.7418576475017478</v>
       </c>
       <c r="I70">
-        <v>13.12342897127361</v>
+        <v>2.231314431612208</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2499,25 +2566,25 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1.4240728635425479</v>
+        <v>0.6194806540892559</v>
       </c>
       <c r="E71">
-        <v>3.6061237562377499</v>
+        <v>4.0214355952911376</v>
       </c>
       <c r="F71">
-        <v>0.1582303181713943</v>
+        <v>6.8831183787695149E-2</v>
       </c>
       <c r="G71">
-        <v>4.6232355849201927E-2</v>
+        <v>5.1556866606296659E-2</v>
       </c>
       <c r="H71">
-        <v>15.82303181713943</v>
+        <v>6.8831183787695149</v>
       </c>
       <c r="I71">
-        <v>4.6232355849201934</v>
+        <v>5.1556866606296659</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2531,22 +2598,22 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.47824749399485528</v>
+        <v>0.85457217577266142</v>
       </c>
       <c r="E72">
-        <v>2.3946385330008009</v>
+        <v>1.5130082403826319</v>
       </c>
       <c r="F72">
-        <v>5.3138610443872802E-2</v>
+        <v>9.495246397474022E-2</v>
       </c>
       <c r="G72">
-        <v>3.07004940128307E-2</v>
+        <v>1.9397541543367151E-2</v>
       </c>
       <c r="H72">
-        <v>5.3138610443872807</v>
+        <v>9.4952463974740215</v>
       </c>
       <c r="I72">
-        <v>3.0700494012830699</v>
+        <v>1.9397541543367149</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2560,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>4.702095229767167E-4</v>
+        <v>0.29504976192635718</v>
       </c>
       <c r="E73">
-        <v>3.6394149940003828</v>
+        <v>3.7999688703330752</v>
       </c>
       <c r="F73">
-        <v>5.2245502553005529E-5</v>
+        <v>3.2783306880706409E-2</v>
       </c>
       <c r="G73">
-        <v>4.6659166589748453E-2</v>
+        <v>4.8717549619654799E-2</v>
       </c>
       <c r="H73">
-        <v>5.2245502553005529E-3</v>
+        <v>3.2783306880706409</v>
       </c>
       <c r="I73">
-        <v>4.6659166589748446</v>
+        <v>4.8717549619654799</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2586,25 +2653,25 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.80667461874104607</v>
+        <v>0.47824749399485528</v>
       </c>
       <c r="E74">
-        <v>6.4596897100787913</v>
+        <v>2.3946385330008009</v>
       </c>
       <c r="F74">
-        <v>8.9630513193449612E-2</v>
+        <v>5.3138610443872802E-2</v>
       </c>
       <c r="G74">
-        <v>8.2816534744599823E-2</v>
+        <v>3.07004940128307E-2</v>
       </c>
       <c r="H74">
-        <v>8.9630513193449612</v>
+        <v>5.3138610443872807</v>
       </c>
       <c r="I74">
-        <v>8.2816534744599828</v>
+        <v>3.0700494012830699</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2618,22 +2685,22 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.60676718827515685</v>
+        <v>0.20800093924989671</v>
       </c>
       <c r="E75">
-        <v>1.740425256657524</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F75">
-        <v>6.7418576475017478E-2</v>
+        <v>2.311121547221073E-2</v>
       </c>
       <c r="G75">
-        <v>2.231314431612208E-2</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H75">
-        <v>6.7418576475017478</v>
+        <v>2.3111215472210729</v>
       </c>
       <c r="I75">
-        <v>2.231314431612208</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2644,25 +2711,25 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>0.6194806540892559</v>
+        <v>0.24928319281669251</v>
       </c>
       <c r="E76">
-        <v>4.0214355952911376</v>
+        <v>4.4931076778042609</v>
       </c>
       <c r="F76">
-        <v>6.8831183787695149E-2</v>
+        <v>2.769813253518805E-2</v>
       </c>
       <c r="G76">
-        <v>5.1556866606296659E-2</v>
+        <v>5.7603944587234168E-2</v>
       </c>
       <c r="H76">
-        <v>6.8831183787695149</v>
+        <v>2.7698132535188051</v>
       </c>
       <c r="I76">
-        <v>5.1556866606296659</v>
+        <v>5.7603944587234164</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2673,25 +2740,25 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>0.85457217577266142</v>
+        <v>0.2337674881607095</v>
       </c>
       <c r="E77">
-        <v>1.5130082403826319</v>
+        <v>3.538531461306079</v>
       </c>
       <c r="F77">
-        <v>9.495246397474022E-2</v>
+        <v>2.5974165351190018E-2</v>
       </c>
       <c r="G77">
-        <v>1.9397541543367151E-2</v>
+        <v>4.5365787965462527E-2</v>
       </c>
       <c r="H77">
-        <v>9.4952463974740215</v>
+        <v>2.5974165351190019</v>
       </c>
       <c r="I77">
-        <v>1.9397541543367149</v>
+        <v>4.5365787965462534</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2702,25 +2769,25 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>0.29504976192635718</v>
+        <v>0.37233300215727277</v>
       </c>
       <c r="E78">
-        <v>3.7999688703330752</v>
+        <v>6.4364746524520342</v>
       </c>
       <c r="F78">
-        <v>3.2783306880706409E-2</v>
+        <v>4.1370333573030327E-2</v>
       </c>
       <c r="G78">
-        <v>4.8717549619654799E-2</v>
+        <v>8.2518905800667119E-2</v>
       </c>
       <c r="H78">
-        <v>3.2783306880706409</v>
+        <v>4.1370333573030322</v>
       </c>
       <c r="I78">
-        <v>4.8717549619654799</v>
+        <v>8.2518905800667124</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2731,25 +2798,25 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0.47824749399485528</v>
+        <v>0.68755207484297909</v>
       </c>
       <c r="E79">
-        <v>2.3946385330008009</v>
+        <v>1.855301129591169</v>
       </c>
       <c r="F79">
-        <v>5.3138610443872802E-2</v>
+        <v>7.6394674982553257E-2</v>
       </c>
       <c r="G79">
-        <v>3.07004940128307E-2</v>
+        <v>2.3785911917835519E-2</v>
       </c>
       <c r="H79">
-        <v>5.3138610443872807</v>
+        <v>7.6394674982553257</v>
       </c>
       <c r="I79">
-        <v>3.0700494012830699</v>
+        <v>2.3785911917835518</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -2760,25 +2827,25 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>0.20800093924989671</v>
+        <v>8.145158452499679E-2</v>
       </c>
       <c r="E80">
-        <v>3.2181528636301731</v>
+        <v>8.1197049841669298</v>
       </c>
       <c r="F80">
-        <v>2.311121547221073E-2</v>
+        <v>9.0501760583329149E-3</v>
       </c>
       <c r="G80">
-        <v>4.1258370046540649E-2</v>
+        <v>0.10409878184829401</v>
       </c>
       <c r="H80">
-        <v>2.3111215472210729</v>
+        <v>0.90501760583329149</v>
       </c>
       <c r="I80">
-        <v>4.1258370046540644</v>
+        <v>10.409878184829401</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2792,22 +2859,22 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>0.24928319281669251</v>
+        <v>0.4991058419366512</v>
       </c>
       <c r="E81">
-        <v>4.4931076778042609</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F81">
-        <v>2.769813253518805E-2</v>
+        <v>5.5456204659627861E-2</v>
       </c>
       <c r="G81">
-        <v>5.7603944587234168E-2</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H81">
-        <v>2.7698132535188051</v>
+        <v>5.5456204659627861</v>
       </c>
       <c r="I81">
-        <v>5.7603944587234164</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2818,25 +2885,25 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.2337674881607095</v>
+        <v>1.2322485574612441</v>
       </c>
       <c r="E82">
-        <v>3.538531461306079</v>
+        <v>0.45892742084024007</v>
       </c>
       <c r="F82">
-        <v>2.5974165351190018E-2</v>
+        <v>0.13691650638458261</v>
       </c>
       <c r="G82">
-        <v>4.5365787965462527E-2</v>
+        <v>5.8836848825671861E-3</v>
       </c>
       <c r="H82">
-        <v>2.5974165351190019</v>
+        <v>13.69165063845826</v>
       </c>
       <c r="I82">
-        <v>4.5365787965462534</v>
+        <v>0.58836848825671861</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -2850,22 +2917,22 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>0.37233300215727277</v>
+        <v>0.4991058419366512</v>
       </c>
       <c r="E83">
-        <v>6.4364746524520342</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F83">
-        <v>4.1370333573030327E-2</v>
+        <v>5.5456204659627861E-2</v>
       </c>
       <c r="G83">
-        <v>8.2518905800667119E-2</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H83">
-        <v>4.1370333573030322</v>
+        <v>5.5456204659627861</v>
       </c>
       <c r="I83">
-        <v>8.2518905800667124</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2876,25 +2943,25 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0.68755207484297909</v>
+        <v>0.2408009976488987</v>
       </c>
       <c r="E84">
-        <v>1.855301129591169</v>
+        <v>8.0864867723691276</v>
       </c>
       <c r="F84">
-        <v>7.6394674982553257E-2</v>
+        <v>2.675566640543325E-2</v>
       </c>
       <c r="G84">
-        <v>2.3785911917835519E-2</v>
+        <v>0.10367290733806581</v>
       </c>
       <c r="H84">
-        <v>7.6394674982553257</v>
+        <v>2.6755666405433249</v>
       </c>
       <c r="I84">
-        <v>2.3785911917835518</v>
+        <v>10.367290733806581</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -2905,25 +2972,25 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>8.145158452499679E-2</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E85">
-        <v>8.1197049841669298</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F85">
-        <v>9.0501760583329149E-3</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G85">
-        <v>0.10409878184829401</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H85">
-        <v>0.90501760583329149</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I85">
-        <v>10.409878184829401</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -2934,25 +3001,25 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.4991058419366512</v>
+        <v>0.18103346689808569</v>
       </c>
       <c r="E86">
-        <v>3.2181528636301731</v>
+        <v>7.3953914936676313</v>
       </c>
       <c r="F86">
-        <v>5.5456204659627861E-2</v>
+        <v>2.011482965534284E-2</v>
       </c>
       <c r="G86">
-        <v>4.1258370046540649E-2</v>
+        <v>9.4812711457277321E-2</v>
       </c>
       <c r="H86">
-        <v>5.5456204659627861</v>
+        <v>2.0114829655342841</v>
       </c>
       <c r="I86">
-        <v>4.1258370046540644</v>
+        <v>9.4812711457277317</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -2963,25 +3030,25 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>1.2322485574612441</v>
+        <v>0.13460465224614809</v>
       </c>
       <c r="E87">
-        <v>0.45892742084024007</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F87">
-        <v>0.13691650638458261</v>
+        <v>1.4956072471794261E-2</v>
       </c>
       <c r="G87">
-        <v>5.8836848825671861E-3</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H87">
-        <v>13.69165063845826</v>
+        <v>1.4956072471794259</v>
       </c>
       <c r="I87">
-        <v>0.58836848825671861</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -2992,25 +3059,25 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0.4991058419366512</v>
+        <v>0.30152991995724321</v>
       </c>
       <c r="E88">
-        <v>3.2181528636301731</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F88">
-        <v>5.5456204659627861E-2</v>
+        <v>3.3503324439693671E-2</v>
       </c>
       <c r="G88">
-        <v>4.1258370046540649E-2</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H88">
-        <v>5.5456204659627861</v>
+        <v>3.3503324439693669</v>
       </c>
       <c r="I88">
-        <v>4.1258370046540644</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3024,22 +3091,22 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.2408009976488987</v>
+        <v>0.1485849682104865</v>
       </c>
       <c r="E89">
-        <v>8.0864867723691276</v>
+        <v>13.06379221441804</v>
       </c>
       <c r="F89">
-        <v>2.675566640543325E-2</v>
+        <v>1.65094409122763E-2</v>
       </c>
       <c r="G89">
-        <v>0.10367290733806581</v>
+        <v>0.16748451556946201</v>
       </c>
       <c r="H89">
-        <v>2.6755666405433249</v>
+        <v>1.6509440912276301</v>
       </c>
       <c r="I89">
-        <v>10.367290733806581</v>
+        <v>16.7484515569462</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3050,25 +3117,25 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0.53615668077161294</v>
+        <v>0.30152991995724321</v>
       </c>
       <c r="E90">
-        <v>4.5349594279593362</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F90">
-        <v>5.957296453017924E-2</v>
+        <v>3.3503324439693671E-2</v>
       </c>
       <c r="G90">
-        <v>5.8140505486658167E-2</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H90">
-        <v>5.957296453017924</v>
+        <v>3.3503324439693669</v>
       </c>
       <c r="I90">
-        <v>5.8140505486658167</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3079,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.18103346689808569</v>
+        <v>0.34537794198179078</v>
       </c>
       <c r="E91">
-        <v>7.3953914936676313</v>
+        <v>2.344515825844272</v>
       </c>
       <c r="F91">
-        <v>2.011482965534284E-2</v>
+        <v>3.8375326886865679E-2</v>
       </c>
       <c r="G91">
-        <v>9.4812711457277321E-2</v>
+        <v>3.005789520313169E-2</v>
       </c>
       <c r="H91">
-        <v>2.0114829655342841</v>
+        <v>3.8375326886865682</v>
       </c>
       <c r="I91">
-        <v>9.4812711457277317</v>
+        <v>3.005789520313169</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3111,22 +3178,22 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.13460465224614809</v>
+        <v>0.9573976957502035</v>
       </c>
       <c r="E92">
-        <v>1.581888871074085</v>
+        <v>14.50051793714562</v>
       </c>
       <c r="F92">
-        <v>1.4956072471794261E-2</v>
+        <v>0.1063775217500226</v>
       </c>
       <c r="G92">
-        <v>2.0280626552231899E-2</v>
+        <v>0.1859040761172516</v>
       </c>
       <c r="H92">
-        <v>1.4956072471794259</v>
+        <v>10.637752175002261</v>
       </c>
       <c r="I92">
-        <v>2.0280626552231902</v>
+        <v>18.590407611725158</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3140,19 +3207,19 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.30152991995724321</v>
+        <v>0.1014633252536417</v>
       </c>
       <c r="E93">
         <v>11.70063671746491</v>
       </c>
       <c r="F93">
-        <v>3.3503324439693671E-2</v>
+        <v>1.1273702805960181E-2</v>
       </c>
       <c r="G93">
         <v>0.15000816304442191</v>
       </c>
       <c r="H93">
-        <v>3.3503324439693669</v>
+        <v>1.127370280596018</v>
       </c>
       <c r="I93">
         <v>15.000816304442189</v>
@@ -3169,22 +3236,22 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.1485849682104865</v>
+        <v>0.43594373288136928</v>
       </c>
       <c r="E94">
-        <v>13.06379221441804</v>
+        <v>10.771684792408079</v>
       </c>
       <c r="F94">
-        <v>1.65094409122763E-2</v>
+        <v>4.8438192542374359E-2</v>
       </c>
       <c r="G94">
-        <v>0.16748451556946201</v>
+        <v>0.13809852297959091</v>
       </c>
       <c r="H94">
-        <v>1.6509440912276301</v>
+        <v>4.8438192542374363</v>
       </c>
       <c r="I94">
-        <v>16.7484515569462</v>
+        <v>13.80985229795909</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3195,25 +3262,25 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>0.30152991995724321</v>
+        <v>0.67201171038115914</v>
       </c>
       <c r="E95">
-        <v>11.70063671746491</v>
+        <v>5.6192615580250704</v>
       </c>
       <c r="F95">
-        <v>3.3503324439693671E-2</v>
+        <v>7.46679678201288E-2</v>
       </c>
       <c r="G95">
-        <v>0.15000816304442191</v>
+        <v>7.2041814846475261E-2</v>
       </c>
       <c r="H95">
-        <v>3.3503324439693669</v>
+        <v>7.4667967820128798</v>
       </c>
       <c r="I95">
-        <v>15.000816304442189</v>
+        <v>7.2041814846475258</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3224,25 +3291,25 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>0.34537794198179078</v>
+        <v>0.17201171038115909</v>
       </c>
       <c r="E96">
-        <v>2.344515825844272</v>
+        <v>5.6192615580250704</v>
       </c>
       <c r="F96">
-        <v>3.8375326886865679E-2</v>
+        <v>1.911241226457322E-2</v>
       </c>
       <c r="G96">
-        <v>3.005789520313169E-2</v>
+        <v>7.2041814846475261E-2</v>
       </c>
       <c r="H96">
-        <v>3.8375326886865682</v>
+        <v>1.911241226457322</v>
       </c>
       <c r="I96">
-        <v>3.005789520313169</v>
+        <v>7.2041814846475258</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3253,25 +3320,25 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0.9573976957502035</v>
+        <v>9.9083480190861106E-2</v>
       </c>
       <c r="E97">
-        <v>14.50051793714562</v>
+        <v>12.634819437565399</v>
       </c>
       <c r="F97">
-        <v>0.1063775217500226</v>
+        <v>1.100927557676235E-2</v>
       </c>
       <c r="G97">
-        <v>0.1859040761172516</v>
+        <v>0.1619848645841718</v>
       </c>
       <c r="H97">
-        <v>10.637752175002261</v>
+        <v>1.100927557676235</v>
       </c>
       <c r="I97">
-        <v>18.590407611725158</v>
+        <v>16.198486458417179</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3282,25 +3349,25 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>0.1014633252536417</v>
+        <v>0.43265737807162191</v>
       </c>
       <c r="E98">
-        <v>11.70063671746491</v>
+        <v>11.728315207591921</v>
       </c>
       <c r="F98">
-        <v>1.1273702805960181E-2</v>
+        <v>4.8073042007957978E-2</v>
       </c>
       <c r="G98">
-        <v>0.15000816304442191</v>
+        <v>0.15036301548194761</v>
       </c>
       <c r="H98">
-        <v>1.127370280596018</v>
+        <v>4.807304200795798</v>
       </c>
       <c r="I98">
-        <v>15.000816304442189</v>
+        <v>15.036301548194761</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,25 +3378,25 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>0.43594373288136928</v>
+        <v>0.17201171038115909</v>
       </c>
       <c r="E99">
-        <v>10.771684792408079</v>
+        <v>5.6192615580250704</v>
       </c>
       <c r="F99">
-        <v>4.8438192542374359E-2</v>
+        <v>1.911241226457322E-2</v>
       </c>
       <c r="G99">
-        <v>0.13809852297959091</v>
+        <v>7.2041814846475261E-2</v>
       </c>
       <c r="H99">
-        <v>4.8438192542374363</v>
+        <v>1.911241226457322</v>
       </c>
       <c r="I99">
-        <v>13.80985229795909</v>
+        <v>7.2041814846475258</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3343,22 +3410,22 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>0.67201171038115914</v>
+        <v>0.15641541436503109</v>
       </c>
       <c r="E100">
-        <v>5.6192615580250704</v>
+        <v>1.55421038094708</v>
       </c>
       <c r="F100">
-        <v>7.46679678201288E-2</v>
+        <v>1.7379490485003479E-2</v>
       </c>
       <c r="G100">
-        <v>7.2041814846475261E-2</v>
+        <v>1.99257741147062E-2</v>
       </c>
       <c r="H100">
-        <v>7.4667967820128798</v>
+        <v>1.7379490485003479</v>
       </c>
       <c r="I100">
-        <v>7.2041814846475258</v>
+        <v>1.9925774114706201</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3369,25 +3436,25 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>0.17201171038115909</v>
+        <v>0.16484854230934909</v>
       </c>
       <c r="E101">
-        <v>5.6192615580250704</v>
+        <v>10.952552619739629</v>
       </c>
       <c r="F101">
-        <v>1.911241226457322E-2</v>
+        <v>1.831650470103879E-2</v>
       </c>
       <c r="G101">
-        <v>7.2041814846475261E-2</v>
+        <v>0.14041734127871319</v>
       </c>
       <c r="H101">
-        <v>1.911241226457322</v>
+        <v>1.8316504701038789</v>
       </c>
       <c r="I101">
-        <v>7.2041814846475258</v>
+        <v>14.041734127871321</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3401,22 +3468,22 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>9.9083480190861106E-2</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E102">
-        <v>12.634819437565399</v>
+        <v>8.6000106050373262</v>
       </c>
       <c r="F102">
-        <v>1.100927557676235E-2</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G102">
-        <v>0.1619848645841718</v>
+        <v>0.1102565462184272</v>
       </c>
       <c r="H102">
-        <v>1.100927557676235</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I102">
-        <v>16.198486458417179</v>
+        <v>11.025654621842721</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3427,25 +3494,25 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0.43265737807162191</v>
+        <v>0.59770949358044323</v>
       </c>
       <c r="E103">
-        <v>11.728315207591921</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F103">
-        <v>4.8073042007957978E-2</v>
+        <v>6.6412165953382563E-2</v>
       </c>
       <c r="G103">
-        <v>0.15036301548194761</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H103">
-        <v>4.807304200795798</v>
+        <v>6.641216595338256</v>
       </c>
       <c r="I103">
-        <v>15.036301548194761</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3456,25 +3523,25 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>0.17201171038115909</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E104">
-        <v>5.6192615580250704</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F104">
-        <v>1.911241226457322E-2</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G104">
-        <v>7.2041814846475261E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H104">
-        <v>1.911241226457322</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I104">
-        <v>7.2041814846475258</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3485,25 +3552,25 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0.15641541436503109</v>
+        <v>0.41296784459834329</v>
       </c>
       <c r="E105">
-        <v>1.55421038094708</v>
+        <v>6.0456704804548016</v>
       </c>
       <c r="F105">
-        <v>1.7379490485003479E-2</v>
+        <v>4.5885316066482613E-2</v>
       </c>
       <c r="G105">
-        <v>1.99257741147062E-2</v>
+        <v>7.7508595903266697E-2</v>
       </c>
       <c r="H105">
-        <v>1.7379490485003479</v>
+        <v>4.5885316066482602</v>
       </c>
       <c r="I105">
-        <v>1.9925774114706201</v>
+        <v>7.7508595903266686</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3514,25 +3581,25 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>0.16484854230934909</v>
+        <v>0.30692347708947582</v>
       </c>
       <c r="E106">
-        <v>10.952552619739629</v>
+        <v>8.7585469906207578</v>
       </c>
       <c r="F106">
-        <v>1.831650470103879E-2</v>
+        <v>3.4102608565497287E-2</v>
       </c>
       <c r="G106">
-        <v>0.14041734127871319</v>
+        <v>0.1122890639823174</v>
       </c>
       <c r="H106">
-        <v>1.8316504701038789</v>
+        <v>3.410260856549729</v>
       </c>
       <c r="I106">
-        <v>14.041734127871321</v>
+        <v>11.228906398231739</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -3543,25 +3610,25 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>7.30518394373183E-2</v>
+        <v>0.3555486315890457</v>
       </c>
       <c r="E107">
-        <v>8.6000106050373262</v>
+        <v>1.1309876390918769</v>
       </c>
       <c r="F107">
-        <v>8.1168710485909346E-3</v>
+        <v>3.9505403509893948E-2</v>
       </c>
       <c r="G107">
-        <v>0.1102565462184272</v>
+        <v>1.449984152681894E-2</v>
       </c>
       <c r="H107">
-        <v>0.81168710485909346</v>
+        <v>3.950540350989395</v>
       </c>
       <c r="I107">
-        <v>11.025654621842721</v>
+        <v>1.449984152681894</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3572,25 +3639,25 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>0.59770949358044323</v>
+        <v>0.88954110242767159</v>
       </c>
       <c r="E108">
-        <v>2.483162306003905</v>
+        <v>13.92766215551174</v>
       </c>
       <c r="F108">
-        <v>6.6412165953382563E-2</v>
+        <v>9.8837900269741263E-2</v>
       </c>
       <c r="G108">
-        <v>3.1835414179537218E-2</v>
+        <v>0.17855977122450939</v>
       </c>
       <c r="H108">
-        <v>6.641216595338256</v>
+        <v>9.8837900269741255</v>
       </c>
       <c r="I108">
-        <v>3.1835414179537218</v>
+        <v>17.855977122450941</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3604,22 +3671,22 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.53615668077161294</v>
+        <v>0.45995083484788418</v>
       </c>
       <c r="E109">
-        <v>4.5349594279593362</v>
+        <v>6.7233312754160011</v>
       </c>
       <c r="F109">
-        <v>5.957296453017924E-2</v>
+        <v>5.1105648316431607E-2</v>
       </c>
       <c r="G109">
-        <v>5.8140505486658167E-2</v>
+        <v>8.6196554813025683E-2</v>
       </c>
       <c r="H109">
-        <v>5.957296453017924</v>
+        <v>5.1105648316431607</v>
       </c>
       <c r="I109">
-        <v>5.8140505486658167</v>
+        <v>8.6196554813025692</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -3633,22 +3700,22 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.41296784459834329</v>
+        <v>0.13152371010169439</v>
       </c>
       <c r="E110">
-        <v>6.0456704804548016</v>
+        <v>2.658280098338011</v>
       </c>
       <c r="F110">
-        <v>4.5885316066482613E-2</v>
+        <v>1.4613745566854909E-2</v>
       </c>
       <c r="G110">
-        <v>7.7508595903266697E-2</v>
+        <v>3.4080514081256563E-2</v>
       </c>
       <c r="H110">
-        <v>4.5885316066482602</v>
+        <v>1.461374556685491</v>
       </c>
       <c r="I110">
-        <v>7.7508595903266686</v>
+        <v>3.4080514081256559</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -3662,22 +3729,22 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0.30692347708947582</v>
+        <v>0.47824749399485528</v>
       </c>
       <c r="E111">
-        <v>8.7585469906207578</v>
+        <v>10.52474088715678</v>
       </c>
       <c r="F111">
-        <v>3.4102608565497287E-2</v>
+        <v>5.3138610443872802E-2</v>
       </c>
       <c r="G111">
-        <v>0.1122890639823174</v>
+        <v>0.13493257547636889</v>
       </c>
       <c r="H111">
-        <v>3.410260856549729</v>
+        <v>5.3138610443872807</v>
       </c>
       <c r="I111">
-        <v>11.228906398231739</v>
+        <v>13.49325754763689</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -3691,22 +3758,22 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.3555486315890457</v>
+        <v>0.80667461874104607</v>
       </c>
       <c r="E112">
-        <v>1.1309876390918769</v>
+        <v>6.4596897100787913</v>
       </c>
       <c r="F112">
-        <v>3.9505403509893948E-2</v>
+        <v>8.9630513193449612E-2</v>
       </c>
       <c r="G112">
-        <v>1.449984152681894E-2</v>
+        <v>8.2816534744599823E-2</v>
       </c>
       <c r="H112">
-        <v>3.950540350989395</v>
+        <v>8.9630513193449612</v>
       </c>
       <c r="I112">
-        <v>1.449984152681894</v>
+        <v>8.2816534744599828</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -3717,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0.88954110242767159</v>
+        <v>1.752499988288738</v>
       </c>
       <c r="E113">
-        <v>13.92766215551174</v>
+        <v>0.45892742084024007</v>
       </c>
       <c r="F113">
-        <v>9.8837900269741263E-2</v>
+        <v>0.19472222092097091</v>
       </c>
       <c r="G113">
-        <v>0.17855977122450939</v>
+        <v>5.8836848825671861E-3</v>
       </c>
       <c r="H113">
-        <v>9.8837900269741255</v>
+        <v>19.472222092097091</v>
       </c>
       <c r="I113">
-        <v>17.855977122450941</v>
+        <v>0.58836848825671861</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3746,25 +3813,25 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>0.45995083484788418</v>
+        <v>2.5295504083352651</v>
       </c>
       <c r="E114">
-        <v>6.7233312754160011</v>
+        <v>4.724311028550332</v>
       </c>
       <c r="F114">
-        <v>5.1105648316431607E-2</v>
+        <v>0.28106115648169622</v>
       </c>
       <c r="G114">
-        <v>8.6196554813025683E-2</v>
+        <v>6.0568090109619672E-2</v>
       </c>
       <c r="H114">
-        <v>5.1105648316431607</v>
+        <v>28.10611564816962</v>
       </c>
       <c r="I114">
-        <v>8.6196554813025692</v>
+        <v>6.0568090109619668</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -3778,22 +3845,22 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0.13152371010169439</v>
+        <v>0.88980374082606239</v>
       </c>
       <c r="E115">
-        <v>2.658280098338011</v>
+        <v>3.2530137747486951</v>
       </c>
       <c r="F115">
-        <v>1.4613745566854909E-2</v>
+        <v>9.8867082314006982E-2</v>
       </c>
       <c r="G115">
-        <v>3.4080514081256563E-2</v>
+        <v>4.1705304804470433E-2</v>
       </c>
       <c r="H115">
-        <v>1.461374556685491</v>
+        <v>9.8867082314006982</v>
       </c>
       <c r="I115">
-        <v>3.4080514081256559</v>
+        <v>4.1705304804470433</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3807,22 +3874,22 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.47824749399485528</v>
+        <v>0.35380423152421342</v>
       </c>
       <c r="E116">
-        <v>10.52474088715678</v>
+        <v>0.58546090442082743</v>
       </c>
       <c r="F116">
-        <v>5.3138610443872802E-2</v>
+        <v>3.9311581280468078E-2</v>
       </c>
       <c r="G116">
-        <v>0.13493257547636889</v>
+        <v>7.5059090310363166E-3</v>
       </c>
       <c r="H116">
-        <v>5.3138610443872807</v>
+        <v>3.9311581280468082</v>
       </c>
       <c r="I116">
-        <v>13.49325754763689</v>
+        <v>0.75059090310363175</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -3833,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>0.80667461874104607</v>
+        <v>0.60777046302693183</v>
       </c>
       <c r="E117">
-        <v>6.4596897100787913</v>
+        <v>4.7513956141931217</v>
       </c>
       <c r="F117">
-        <v>8.9630513193449612E-2</v>
+        <v>6.7530051447436956E-2</v>
       </c>
       <c r="G117">
-        <v>8.2816534744599823E-2</v>
+        <v>6.0915328387091239E-2</v>
       </c>
       <c r="H117">
-        <v>8.9630513193449612</v>
+        <v>6.7530051447436961</v>
       </c>
       <c r="I117">
-        <v>8.2816534744599828</v>
+        <v>6.0915328387091243</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -3865,22 +3932,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1.752499988288738</v>
+        <v>1.17980961271128</v>
       </c>
       <c r="E118">
-        <v>0.45892742084024007</v>
+        <v>3.289593837123832</v>
       </c>
       <c r="F118">
-        <v>0.19472222092097091</v>
+        <v>0.13108995696792</v>
       </c>
       <c r="G118">
-        <v>5.8836848825671861E-3</v>
+        <v>4.217427996312606E-2</v>
       </c>
       <c r="H118">
-        <v>19.472222092097091</v>
+        <v>13.108995696792</v>
       </c>
       <c r="I118">
-        <v>0.58836848825671861</v>
+        <v>4.2174279963126056</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -3891,25 +3958,25 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>2.5295504083352651</v>
+        <v>0.63411304441611804</v>
       </c>
       <c r="E119">
-        <v>4.724311028550332</v>
+        <v>10.360940511585479</v>
       </c>
       <c r="F119">
-        <v>0.28106115648169622</v>
+        <v>7.0457004935124301E-2</v>
       </c>
       <c r="G119">
-        <v>6.0568090109619672E-2</v>
+        <v>0.13283257066135221</v>
       </c>
       <c r="H119">
-        <v>28.10611564816962</v>
+        <v>7.0457004935124301</v>
       </c>
       <c r="I119">
-        <v>6.0568090109619668</v>
+        <v>13.283257066135221</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -3920,25 +3987,25 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.88980374082606239</v>
+        <v>0.84795687230784189</v>
       </c>
       <c r="E120">
-        <v>3.2530137747486951</v>
+        <v>1.2515708313556499</v>
       </c>
       <c r="F120">
-        <v>9.8867082314006982E-2</v>
+        <v>9.4217430256426815E-2</v>
       </c>
       <c r="G120">
-        <v>4.1705304804470433E-2</v>
+        <v>1.604577988917499E-2</v>
       </c>
       <c r="H120">
-        <v>9.8867082314006982</v>
+        <v>9.421743025642682</v>
       </c>
       <c r="I120">
-        <v>4.1705304804470433</v>
+        <v>1.6045779889174989</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -3952,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.35380423152421342</v>
+        <v>0.7924302503512477</v>
       </c>
       <c r="E121">
-        <v>0.58546090442082743</v>
+        <v>2.784813581918598</v>
       </c>
       <c r="F121">
-        <v>3.9311581280468078E-2</v>
+        <v>8.8047805594583028E-2</v>
       </c>
       <c r="G121">
-        <v>7.5059090310363166E-3</v>
+        <v>3.5702738229725688E-2</v>
       </c>
       <c r="H121">
-        <v>3.9311581280468082</v>
+        <v>8.8047805594583028</v>
       </c>
       <c r="I121">
-        <v>0.75059090310363175</v>
+        <v>3.570273822972569</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -3978,25 +4045,25 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0.60777046302693183</v>
+        <v>0.85407835279561795</v>
       </c>
       <c r="E122">
-        <v>4.7513956141931217</v>
+        <v>5.7378841388038504</v>
       </c>
       <c r="F122">
-        <v>6.7530051447436956E-2</v>
+        <v>9.4897594755068648E-2</v>
       </c>
       <c r="G122">
-        <v>6.0915328387091239E-2</v>
+        <v>7.3562617164151911E-2</v>
       </c>
       <c r="H122">
-        <v>6.7530051447436961</v>
+        <v>9.4897594755068653</v>
       </c>
       <c r="I122">
-        <v>6.0915328387091243</v>
+        <v>7.3562617164151911</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -4007,25 +4074,25 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1.17980961271128</v>
+        <v>0.2003055582725253</v>
       </c>
       <c r="E123">
-        <v>3.289593837123832</v>
+        <v>1.4481184827466791</v>
       </c>
       <c r="F123">
-        <v>0.13108995696792</v>
+        <v>2.2256173141391718E-2</v>
       </c>
       <c r="G123">
-        <v>4.217427996312606E-2</v>
+        <v>1.8565621573675362E-2</v>
       </c>
       <c r="H123">
-        <v>13.108995696792</v>
+        <v>2.2256173141391722</v>
       </c>
       <c r="I123">
-        <v>4.2174279963126056</v>
+        <v>1.8565621573675359</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4039,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0.63411304441611804</v>
+        <v>2.803980738723055E-2</v>
       </c>
       <c r="E124">
-        <v>10.360940511585479</v>
+        <v>7.9489173738209047</v>
       </c>
       <c r="F124">
-        <v>7.0457004935124301E-2</v>
+        <v>3.1155341541366792E-3</v>
       </c>
       <c r="G124">
-        <v>0.13283257066135221</v>
+        <v>0.101909197100268</v>
       </c>
       <c r="H124">
-        <v>7.0457004935124301</v>
+        <v>0.31155341541366788</v>
       </c>
       <c r="I124">
-        <v>13.283257066135221</v>
+        <v>10.190919710026799</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -4068,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0.84795687230784189</v>
+        <v>0.44117855678201678</v>
       </c>
       <c r="E125">
-        <v>1.2515708313556499</v>
+        <v>6.042536521426058</v>
       </c>
       <c r="F125">
-        <v>9.4217430256426815E-2</v>
+        <v>4.9019839642446272E-2</v>
       </c>
       <c r="G125">
-        <v>1.604577988917499E-2</v>
+        <v>7.7468416941359752E-2</v>
       </c>
       <c r="H125">
-        <v>9.421743025642682</v>
+        <v>4.9019839642446268</v>
       </c>
       <c r="I125">
-        <v>1.6045779889174989</v>
+        <v>7.7468416941359752</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -4094,25 +4161,25 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>0.7924302503512477</v>
+        <v>0.2337674881607095</v>
       </c>
       <c r="E126">
-        <v>2.784813581918598</v>
+        <v>3.538531461306079</v>
       </c>
       <c r="F126">
-        <v>8.8047805594583028E-2</v>
+        <v>2.5974165351190018E-2</v>
       </c>
       <c r="G126">
-        <v>3.5702738229725688E-2</v>
+        <v>4.5365787965462527E-2</v>
       </c>
       <c r="H126">
-        <v>8.8047805594583028</v>
+        <v>2.5974165351190019</v>
       </c>
       <c r="I126">
-        <v>3.570273822972569</v>
+        <v>4.5365787965462534</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -4126,22 +4193,22 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0.85407835279561795</v>
+        <v>9.3093933475261181E-2</v>
       </c>
       <c r="E127">
-        <v>5.7378841388038504</v>
+        <v>5.2542614938342069</v>
       </c>
       <c r="F127">
-        <v>9.4897594755068648E-2</v>
+        <v>1.0343770386140091E-2</v>
       </c>
       <c r="G127">
-        <v>7.3562617164151911E-2</v>
+        <v>6.736232684402832E-2</v>
       </c>
       <c r="H127">
-        <v>9.4897594755068653</v>
+        <v>1.034377038614009</v>
       </c>
       <c r="I127">
-        <v>7.3562617164151911</v>
+        <v>6.7362326844028324</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -4155,22 +4222,22 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.2003055582725253</v>
+        <v>0.49215512711404052</v>
       </c>
       <c r="E128">
-        <v>1.4481184827466791</v>
+        <v>6.6276447267885459</v>
       </c>
       <c r="F128">
-        <v>2.2256173141391718E-2</v>
+        <v>5.468390301267112E-2</v>
       </c>
       <c r="G128">
-        <v>1.8565621573675362E-2</v>
+        <v>8.4969804189596765E-2</v>
       </c>
       <c r="H128">
-        <v>2.2256173141391722</v>
+        <v>5.468390301267112</v>
       </c>
       <c r="I128">
-        <v>1.8565621573675359</v>
+        <v>8.4969804189596765</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4184,22 +4251,22 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>2.803980738723055E-2</v>
+        <v>1.5548984852977981</v>
       </c>
       <c r="E129">
-        <v>7.9489173738209047</v>
+        <v>6.0136866925518007</v>
       </c>
       <c r="F129">
-        <v>3.1155341541366792E-3</v>
+        <v>0.17276649836642211</v>
       </c>
       <c r="G129">
-        <v>0.101909197100268</v>
+        <v>7.7098547340407664E-2</v>
       </c>
       <c r="H129">
-        <v>0.31155341541366788</v>
+        <v>17.276649836642211</v>
       </c>
       <c r="I129">
-        <v>10.190919710026799</v>
+        <v>7.7098547340407659</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4210,25 +4277,25 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>0.44117855678201678</v>
+        <v>0.11822589869479221</v>
       </c>
       <c r="E130">
-        <v>6.042536521426058</v>
+        <v>4.5424264643674803</v>
       </c>
       <c r="F130">
-        <v>4.9019839642446272E-2</v>
+        <v>1.3136210966087971E-2</v>
       </c>
       <c r="G130">
-        <v>7.7468416941359752E-2</v>
+        <v>5.8236236722659977E-2</v>
       </c>
       <c r="H130">
-        <v>4.9019839642446268</v>
+        <v>1.3136210966087969</v>
       </c>
       <c r="I130">
-        <v>7.7468416941359752</v>
+        <v>5.8236236722659989</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4242,22 +4309,22 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.2337674881607095</v>
+        <v>1.2660969988462001</v>
       </c>
       <c r="E131">
-        <v>3.538531461306079</v>
+        <v>0.18531113467159341</v>
       </c>
       <c r="F131">
-        <v>2.5974165351190018E-2</v>
+        <v>0.1406774443162444</v>
       </c>
       <c r="G131">
-        <v>4.5365787965462527E-2</v>
+        <v>2.375783777840867E-3</v>
       </c>
       <c r="H131">
-        <v>2.5974165351190019</v>
+        <v>14.06774443162444</v>
       </c>
       <c r="I131">
-        <v>4.5365787965462534</v>
+        <v>0.23757837778408669</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4268,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>9.3093933475261181E-2</v>
@@ -4297,25 +4364,25 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>0.49215512711404052</v>
+        <v>1.0623058987490539</v>
       </c>
       <c r="E133">
-        <v>6.6276447267885459</v>
+        <v>6.43494882292201</v>
       </c>
       <c r="F133">
-        <v>5.468390301267112E-2</v>
+        <v>0.1180339887498949</v>
       </c>
       <c r="G133">
-        <v>8.4969804189596765E-2</v>
+        <v>8.2499343883615461E-2</v>
       </c>
       <c r="H133">
-        <v>5.468390301267112</v>
+        <v>11.80339887498949</v>
       </c>
       <c r="I133">
-        <v>8.4969804189596765</v>
+        <v>8.2499343883615452</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4326,25 +4393,25 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>1.5548984852977981</v>
+        <v>0.39805649668142878</v>
       </c>
       <c r="E134">
-        <v>6.0136866925518007</v>
+        <v>4.7517184912071002</v>
       </c>
       <c r="F134">
-        <v>0.17276649836642211</v>
+        <v>4.4228499631269853E-2</v>
       </c>
       <c r="G134">
-        <v>7.7098547340407664E-2</v>
+        <v>6.091946783598845E-2</v>
       </c>
       <c r="H134">
-        <v>17.276649836642211</v>
+        <v>4.4228499631269846</v>
       </c>
       <c r="I134">
-        <v>7.7098547340407659</v>
+        <v>6.0919467835988446</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4355,25 +4422,25 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0.11822589869479221</v>
+        <v>0.24928319281669251</v>
       </c>
       <c r="E135">
-        <v>4.5424264643674803</v>
+        <v>4.4931076778042609</v>
       </c>
       <c r="F135">
-        <v>1.3136210966087971E-2</v>
+        <v>2.769813253518805E-2</v>
       </c>
       <c r="G135">
-        <v>5.8236236722659977E-2</v>
+        <v>5.7603944587234168E-2</v>
       </c>
       <c r="H135">
-        <v>1.3136210966087969</v>
+        <v>2.7698132535188051</v>
       </c>
       <c r="I135">
-        <v>5.8236236722659989</v>
+        <v>5.7603944587234164</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4384,25 +4451,25 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1.2660969988462001</v>
+        <v>0.83644832188408458</v>
       </c>
       <c r="E136">
-        <v>0.18531113467159341</v>
+        <v>5.1152020054196754</v>
       </c>
       <c r="F136">
-        <v>0.1406774443162444</v>
+        <v>9.293870243156499E-2</v>
       </c>
       <c r="G136">
-        <v>2.375783777840867E-3</v>
+        <v>6.5579512889995861E-2</v>
       </c>
       <c r="H136">
-        <v>14.06774443162444</v>
+        <v>9.2938702431564995</v>
       </c>
       <c r="I136">
-        <v>0.23757837778408669</v>
+        <v>6.5579512889995861</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4416,22 +4483,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>9.3093933475261181E-2</v>
+        <v>0.72043409118949242</v>
       </c>
       <c r="E137">
-        <v>5.2542614938342069</v>
+        <v>2.784813581918598</v>
       </c>
       <c r="F137">
-        <v>1.0343770386140091E-2</v>
+        <v>8.0048232354388071E-2</v>
       </c>
       <c r="G137">
-        <v>6.736232684402832E-2</v>
+        <v>3.5702738229725688E-2</v>
       </c>
       <c r="H137">
-        <v>1.034377038614009</v>
+        <v>8.0048232354388063</v>
       </c>
       <c r="I137">
-        <v>6.7362326844028324</v>
+        <v>3.570273822972569</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4442,25 +4509,25 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>1.0623058987490539</v>
+        <v>0.58234121842160214</v>
       </c>
       <c r="E138">
-        <v>6.43494882292201</v>
+        <v>5.8636991113998533</v>
       </c>
       <c r="F138">
-        <v>0.1180339887498949</v>
+        <v>6.470457982462241E-2</v>
       </c>
       <c r="G138">
-        <v>8.2499343883615461E-2</v>
+        <v>7.5175629633331464E-2</v>
       </c>
       <c r="H138">
-        <v>11.80339887498949</v>
+        <v>6.470457982462241</v>
       </c>
       <c r="I138">
-        <v>8.2499343883615452</v>
+        <v>7.5175629633331464</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -4474,22 +4541,22 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.39805649668142878</v>
+        <v>0.1699977246893081</v>
       </c>
       <c r="E139">
-        <v>4.7517184912071002</v>
+        <v>11.682213158617831</v>
       </c>
       <c r="F139">
-        <v>4.4228499631269853E-2</v>
+        <v>1.888863607658986E-2</v>
       </c>
       <c r="G139">
-        <v>6.091946783598845E-2</v>
+        <v>0.14977196357202349</v>
       </c>
       <c r="H139">
-        <v>4.4228499631269846</v>
+        <v>1.888863607658986</v>
       </c>
       <c r="I139">
-        <v>6.0919467835988446</v>
+        <v>14.977196357202351</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4503,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.24928319281669251</v>
+        <v>1.061555049709201</v>
       </c>
       <c r="E140">
-        <v>4.4931076778042609</v>
+        <v>3.0681652824782191</v>
       </c>
       <c r="F140">
-        <v>2.769813253518805E-2</v>
+        <v>0.1179505610788002</v>
       </c>
       <c r="G140">
-        <v>5.7603944587234168E-2</v>
+        <v>3.9335452339464339E-2</v>
       </c>
       <c r="H140">
-        <v>2.7698132535188051</v>
+        <v>11.79505610788002</v>
       </c>
       <c r="I140">
-        <v>5.7603944587234164</v>
+        <v>3.9335452339464339</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4529,25 +4596,25 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>0.83644832188408458</v>
+        <v>2.7434642370414908</v>
       </c>
       <c r="E141">
-        <v>5.1152020054196754</v>
+        <v>8.5723362074659981</v>
       </c>
       <c r="F141">
-        <v>9.293870243156499E-2</v>
+        <v>0.30482935967127678</v>
       </c>
       <c r="G141">
-        <v>6.5579512889995861E-2</v>
+        <v>0.1099017462495641</v>
       </c>
       <c r="H141">
-        <v>9.2938702431564995</v>
+        <v>30.48293596712768</v>
       </c>
       <c r="I141">
-        <v>6.5579512889995861</v>
+        <v>10.99017462495641</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4561,22 +4628,22 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.72043409118949242</v>
+        <v>0.2048585306663249</v>
       </c>
       <c r="E142">
-        <v>2.784813581918598</v>
+        <v>5.7378841388038504</v>
       </c>
       <c r="F142">
-        <v>8.0048232354388071E-2</v>
+        <v>2.2762058962924939E-2</v>
       </c>
       <c r="G142">
-        <v>3.5702738229725688E-2</v>
+        <v>7.3562617164151911E-2</v>
       </c>
       <c r="H142">
-        <v>8.0048232354388063</v>
+        <v>2.276205896292494</v>
       </c>
       <c r="I142">
-        <v>3.570273822972569</v>
+        <v>7.3562617164151911</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4587,25 +4654,25 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0.58234121842160214</v>
+        <v>0.19682174642636061</v>
       </c>
       <c r="E143">
-        <v>5.8636991113998533</v>
+        <v>2.8761637373357729</v>
       </c>
       <c r="F143">
-        <v>6.470457982462241E-2</v>
+        <v>2.1869082936262219E-2</v>
       </c>
       <c r="G143">
-        <v>7.5175629633331464E-2</v>
+        <v>3.6873894068407347E-2</v>
       </c>
       <c r="H143">
-        <v>6.470457982462241</v>
+        <v>2.1869082936262219</v>
       </c>
       <c r="I143">
-        <v>7.5175629633331464</v>
+        <v>3.6873894068407349</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4619,22 +4686,22 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.1699977246893081</v>
+        <v>0.20800093924989671</v>
       </c>
       <c r="E144">
-        <v>11.682213158617831</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F144">
-        <v>1.888863607658986E-2</v>
+        <v>2.311121547221073E-2</v>
       </c>
       <c r="G144">
-        <v>0.14977196357202349</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H144">
-        <v>1.888863607658986</v>
+        <v>2.3111215472210729</v>
       </c>
       <c r="I144">
-        <v>14.977196357202351</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4645,25 +4712,25 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>1.061555049709201</v>
+        <v>8.9264424867413261E-2</v>
       </c>
       <c r="E145">
-        <v>3.0681652824782191</v>
+        <v>0.97186212367252267</v>
       </c>
       <c r="F145">
-        <v>0.1179505610788002</v>
+        <v>9.9182694297126339E-3</v>
       </c>
       <c r="G145">
-        <v>3.9335452339464339E-2</v>
+        <v>1.2459770816314331E-2</v>
       </c>
       <c r="H145">
-        <v>11.79505610788002</v>
+        <v>0.99182694297126339</v>
       </c>
       <c r="I145">
-        <v>3.9335452339464339</v>
+        <v>1.2459770816314331</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4674,25 +4741,25 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2.7434642370414908</v>
+        <v>0.29504976192635718</v>
       </c>
       <c r="E146">
-        <v>8.5723362074659981</v>
+        <v>3.7999688703330752</v>
       </c>
       <c r="F146">
-        <v>0.30482935967127678</v>
+        <v>3.2783306880706409E-2</v>
       </c>
       <c r="G146">
-        <v>0.1099017462495641</v>
+        <v>4.8717549619654799E-2</v>
       </c>
       <c r="H146">
-        <v>30.48293596712768</v>
+        <v>3.2783306880706409</v>
       </c>
       <c r="I146">
-        <v>10.99017462495641</v>
+        <v>4.8717549619654799</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4706,22 +4773,22 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.2048585306663249</v>
+        <v>0.28387056910282032</v>
       </c>
       <c r="E147">
-        <v>5.7378841388038504</v>
+        <v>4.1419579966274753</v>
       </c>
       <c r="F147">
-        <v>2.2762058962924939E-2</v>
+        <v>3.1541174344757783E-2</v>
       </c>
       <c r="G147">
-        <v>7.3562617164151911E-2</v>
+        <v>5.3102025597788087E-2</v>
       </c>
       <c r="H147">
-        <v>2.276205896292494</v>
+        <v>3.1541174344757779</v>
       </c>
       <c r="I147">
-        <v>7.3562617164151911</v>
+        <v>5.3102025597788094</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4735,22 +4802,22 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0.19682174642636061</v>
+        <v>0.2408009976488987</v>
       </c>
       <c r="E148">
-        <v>2.8761637373357729</v>
+        <v>8.0864867723691276</v>
       </c>
       <c r="F148">
-        <v>2.1869082936262219E-2</v>
+        <v>2.675566640543325E-2</v>
       </c>
       <c r="G148">
-        <v>3.6873894068407347E-2</v>
+        <v>0.10367290733806581</v>
       </c>
       <c r="H148">
-        <v>2.1869082936262219</v>
+        <v>2.6755666405433249</v>
       </c>
       <c r="I148">
-        <v>3.6873894068407349</v>
+        <v>10.367290733806581</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -4761,25 +4828,25 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>0.20800093924989671</v>
+        <v>0.84742013994176268</v>
       </c>
       <c r="E149">
-        <v>3.2181528636301731</v>
+        <v>0.20718250609457561</v>
       </c>
       <c r="F149">
-        <v>2.311121547221073E-2</v>
+        <v>9.4157793326862582E-2</v>
       </c>
       <c r="G149">
-        <v>4.1258370046540649E-2</v>
+        <v>2.6561859755714901E-3</v>
       </c>
       <c r="H149">
-        <v>2.3111215472210729</v>
+        <v>9.4157793326862578</v>
       </c>
       <c r="I149">
-        <v>4.1258370046540644</v>
+        <v>0.26561859755714901</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -4790,25 +4857,25 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>8.9264424867413261E-2</v>
+        <v>0.1324083123985158</v>
       </c>
       <c r="E150">
-        <v>0.97186212367252267</v>
+        <v>2.4941431360450039</v>
       </c>
       <c r="F150">
-        <v>9.9182694297126339E-3</v>
+        <v>1.4712034710946179E-2</v>
       </c>
       <c r="G150">
-        <v>1.2459770816314331E-2</v>
+        <v>3.197619405185903E-2</v>
       </c>
       <c r="H150">
-        <v>0.99182694297126339</v>
+        <v>1.471203471094618</v>
       </c>
       <c r="I150">
-        <v>1.2459770816314331</v>
+        <v>3.197619405185903</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -4822,22 +4889,22 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.29504976192635718</v>
+        <v>0.30692347708947582</v>
       </c>
       <c r="E151">
-        <v>3.7999688703330752</v>
+        <v>8.7585469906207578</v>
       </c>
       <c r="F151">
-        <v>3.2783306880706409E-2</v>
+        <v>3.4102608565497287E-2</v>
       </c>
       <c r="G151">
-        <v>4.8717549619654799E-2</v>
+        <v>0.1122890639823174</v>
       </c>
       <c r="H151">
-        <v>3.2783306880706409</v>
+        <v>3.410260856549729</v>
       </c>
       <c r="I151">
-        <v>4.8717549619654799</v>
+        <v>11.228906398231739</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -4851,22 +4918,22 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.28387056910282032</v>
+        <v>0.6194806540892559</v>
       </c>
       <c r="E152">
-        <v>4.1419579966274753</v>
+        <v>4.0214355952911376</v>
       </c>
       <c r="F152">
-        <v>3.1541174344757783E-2</v>
+        <v>6.8831183787695149E-2</v>
       </c>
       <c r="G152">
-        <v>5.3102025597788087E-2</v>
+        <v>5.1556866606296659E-2</v>
       </c>
       <c r="H152">
-        <v>3.1541174344757779</v>
+        <v>6.8831183787695149</v>
       </c>
       <c r="I152">
-        <v>5.3102025597788094</v>
+        <v>5.1556866606296659</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -4877,25 +4944,25 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>0.2408009976488987</v>
+        <v>0.1324083123985158</v>
       </c>
       <c r="E153">
-        <v>8.0864867723691276</v>
+        <v>2.4941431360450039</v>
       </c>
       <c r="F153">
-        <v>2.675566640543325E-2</v>
+        <v>1.4712034710946179E-2</v>
       </c>
       <c r="G153">
-        <v>0.10367290733806581</v>
+        <v>3.197619405185903E-2</v>
       </c>
       <c r="H153">
-        <v>2.6755666405433249</v>
+        <v>1.471203471094618</v>
       </c>
       <c r="I153">
-        <v>10.367290733806581</v>
+        <v>3.197619405185903</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -4909,22 +4976,22 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.84742013994176268</v>
+        <v>0.3458093304784926</v>
       </c>
       <c r="E154">
-        <v>0.20718250609457561</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F154">
-        <v>9.4157793326862582E-2</v>
+        <v>3.8423258942054728E-2</v>
       </c>
       <c r="G154">
-        <v>2.6561859755714901E-3</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H154">
-        <v>9.4157793326862578</v>
+        <v>3.842325894205473</v>
       </c>
       <c r="I154">
-        <v>0.26561859755714901</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -4938,22 +5005,22 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0.1324083123985158</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E155">
-        <v>2.4941431360450039</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F155">
-        <v>1.4712034710946179E-2</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G155">
-        <v>3.197619405185903E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H155">
-        <v>1.471203471094618</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I155">
-        <v>3.197619405185903</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -4964,25 +5031,25 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>0.30692347708947582</v>
+        <v>0.1485849682104865</v>
       </c>
       <c r="E156">
-        <v>8.7585469906207578</v>
+        <v>13.06379221441804</v>
       </c>
       <c r="F156">
-        <v>3.4102608565497287E-2</v>
+        <v>1.65094409122763E-2</v>
       </c>
       <c r="G156">
-        <v>0.1122890639823174</v>
+        <v>0.16748451556946201</v>
       </c>
       <c r="H156">
-        <v>3.410260856549729</v>
+        <v>1.6509440912276301</v>
       </c>
       <c r="I156">
-        <v>11.228906398231739</v>
+        <v>16.7484515569462</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -4993,25 +5060,25 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>0.6194806540892559</v>
+        <v>8.7032155401656652E-2</v>
       </c>
       <c r="E157">
-        <v>4.0214355952911376</v>
+        <v>6.0456704804548016</v>
       </c>
       <c r="F157">
-        <v>6.8831183787695149E-2</v>
+        <v>9.6702394890729737E-3</v>
       </c>
       <c r="G157">
-        <v>5.1556866606296659E-2</v>
+        <v>7.7508595903266697E-2</v>
       </c>
       <c r="H157">
-        <v>6.8831183787695149</v>
+        <v>0.96702394890729737</v>
       </c>
       <c r="I157">
-        <v>5.1556866606296659</v>
+        <v>7.7508595903266686</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -5022,25 +5089,25 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>0.1324083123985158</v>
+        <v>1.009068089640492</v>
       </c>
       <c r="E158">
-        <v>2.4941431360450039</v>
+        <v>1.827429966172275</v>
       </c>
       <c r="F158">
-        <v>1.4712034710946179E-2</v>
+        <v>0.1121186766267213</v>
       </c>
       <c r="G158">
-        <v>3.197619405185903E-2</v>
+        <v>2.3428589309900969E-2</v>
       </c>
       <c r="H158">
-        <v>1.471203471094618</v>
+        <v>11.21186766267213</v>
       </c>
       <c r="I158">
-        <v>3.197619405185903</v>
+        <v>2.3428589309900971</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5051,22 +5118,22 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>0.3458093304784926</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E159">
         <v>3.781241548571856</v>
       </c>
       <c r="F159">
-        <v>3.8423258942054728E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G159">
         <v>4.8477455750921217E-2</v>
       </c>
       <c r="H159">
-        <v>3.842325894205473</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I159">
         <v>4.8477455750921212</v>
@@ -5083,22 +5150,22 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0.53615668077161294</v>
+        <v>4.3184133377108143E-2</v>
       </c>
       <c r="E160">
-        <v>4.5349594279593362</v>
+        <v>7.9994820628543799</v>
       </c>
       <c r="F160">
-        <v>5.957296453017924E-2</v>
+        <v>4.7982370419009102E-3</v>
       </c>
       <c r="G160">
-        <v>5.8140505486658167E-2</v>
+        <v>0.10255746234428691</v>
       </c>
       <c r="H160">
-        <v>5.957296453017924</v>
+        <v>0.47982370419009102</v>
       </c>
       <c r="I160">
-        <v>5.8140505486658167</v>
+        <v>10.25574623442869</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -5109,25 +5176,25 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>0.1485849682104865</v>
+        <v>1.016570663496253</v>
       </c>
       <c r="E161">
-        <v>13.06379221441804</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F161">
-        <v>1.65094409122763E-2</v>
+        <v>0.1129522959440281</v>
       </c>
       <c r="G161">
-        <v>0.16748451556946201</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H161">
-        <v>1.6509440912276301</v>
+        <v>11.29522959440281</v>
       </c>
       <c r="I161">
-        <v>16.7484515569462</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -5141,22 +5208,22 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>8.7032155401656652E-2</v>
+        <v>0.4573976957502035</v>
       </c>
       <c r="E162">
-        <v>6.0456704804548016</v>
+        <v>14.50051793714562</v>
       </c>
       <c r="F162">
-        <v>9.6702394890729737E-3</v>
+        <v>5.082196619446705E-2</v>
       </c>
       <c r="G162">
-        <v>7.7508595903266697E-2</v>
+        <v>0.1859040761172516</v>
       </c>
       <c r="H162">
-        <v>0.96702394890729737</v>
+        <v>5.0821966194467052</v>
       </c>
       <c r="I162">
-        <v>7.7508595903266686</v>
+        <v>18.590407611725158</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -5170,22 +5237,22 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>1.009068089640492</v>
+        <v>0.16484854230934909</v>
       </c>
       <c r="E163">
-        <v>1.827429966172275</v>
+        <v>7.4823962031823834</v>
       </c>
       <c r="F163">
-        <v>0.1121186766267213</v>
+        <v>1.831650470103879E-2</v>
       </c>
       <c r="G163">
-        <v>2.3428589309900969E-2</v>
+        <v>9.5928156451056193E-2</v>
       </c>
       <c r="H163">
-        <v>11.21186766267213</v>
+        <v>1.8316504701038789</v>
       </c>
       <c r="I163">
-        <v>2.3428589309900971</v>
+        <v>9.5928156451056186</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -5199,22 +5266,22 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.15419066952150781</v>
+        <v>0.67201171038115914</v>
       </c>
       <c r="E164">
-        <v>3.781241548571856</v>
+        <v>5.6192615580250704</v>
       </c>
       <c r="F164">
-        <v>1.7132296613500849E-2</v>
+        <v>7.46679678201288E-2</v>
       </c>
       <c r="G164">
-        <v>4.8477455750921217E-2</v>
+        <v>7.2041814846475261E-2</v>
       </c>
       <c r="H164">
-        <v>1.713229661350085</v>
+        <v>7.4667967820128798</v>
       </c>
       <c r="I164">
-        <v>4.8477455750921212</v>
+        <v>7.2041814846475258</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -5228,22 +5295,22 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>4.3184133377108143E-2</v>
+        <v>0.43594373288136928</v>
       </c>
       <c r="E165">
-        <v>7.9994820628543799</v>
+        <v>10.771684792408079</v>
       </c>
       <c r="F165">
-        <v>4.7982370419009102E-3</v>
+        <v>4.8438192542374359E-2</v>
       </c>
       <c r="G165">
-        <v>0.10255746234428691</v>
+        <v>0.13809852297959091</v>
       </c>
       <c r="H165">
-        <v>0.47982370419009102</v>
+        <v>4.8438192542374363</v>
       </c>
       <c r="I165">
-        <v>10.25574623442869</v>
+        <v>13.80985229795909</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -5257,22 +5324,22 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1.016570663496253</v>
+        <v>0.81977768972494891</v>
       </c>
       <c r="E166">
-        <v>11.70063671746491</v>
+        <v>3.4173450261043929</v>
       </c>
       <c r="F166">
-        <v>0.1129522959440281</v>
+        <v>9.1086409969438731E-2</v>
       </c>
       <c r="G166">
-        <v>0.15000816304442191</v>
+        <v>4.3812115719287087E-2</v>
       </c>
       <c r="H166">
-        <v>11.29522959440281</v>
+        <v>9.1086409969438726</v>
       </c>
       <c r="I166">
-        <v>15.000816304442189</v>
+        <v>4.3812115719287084</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -5283,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>0.4573976957502035</v>
+        <v>0.57577574987269653</v>
       </c>
       <c r="E167">
-        <v>14.50051793714562</v>
+        <v>1.735078208278622</v>
       </c>
       <c r="F167">
-        <v>5.082196619446705E-2</v>
+        <v>6.3975083319188497E-2</v>
       </c>
       <c r="G167">
-        <v>0.1859040761172516</v>
+        <v>2.2244592413828489E-2</v>
       </c>
       <c r="H167">
-        <v>5.0821966194467052</v>
+        <v>6.3975083319188499</v>
       </c>
       <c r="I167">
-        <v>18.590407611725158</v>
+        <v>2.2244592413828488</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -5312,25 +5379,25 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>0.16484854230934909</v>
+        <v>0.31959610746631922</v>
       </c>
       <c r="E168">
-        <v>7.4823962031823834</v>
+        <v>0.61242971558404236</v>
       </c>
       <c r="F168">
-        <v>1.831650470103879E-2</v>
+        <v>3.551067860736884E-2</v>
       </c>
       <c r="G168">
-        <v>9.5928156451056193E-2</v>
+        <v>7.8516630203082638E-3</v>
       </c>
       <c r="H168">
-        <v>1.8316504701038789</v>
+        <v>3.5510678607368842</v>
       </c>
       <c r="I168">
-        <v>9.5928156451056186</v>
+        <v>0.78516630203082638</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -5341,25 +5408,25 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0.67201171038115914</v>
+        <v>0.64758439708516002</v>
       </c>
       <c r="E169">
-        <v>5.6192615580250704</v>
+        <v>14.89841108054687</v>
       </c>
       <c r="F169">
-        <v>7.46679678201288E-2</v>
+        <v>7.1953821898351145E-2</v>
       </c>
       <c r="G169">
-        <v>7.2041814846475261E-2</v>
+        <v>0.19100527026342129</v>
       </c>
       <c r="H169">
-        <v>7.4667967820128798</v>
+        <v>7.1953821898351142</v>
       </c>
       <c r="I169">
-        <v>7.2041814846475258</v>
+        <v>19.100527026342139</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -5370,25 +5437,25 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>0.43594373288136928</v>
+        <v>1.1715728752538099</v>
       </c>
       <c r="E170">
-        <v>10.771684792408079</v>
+        <v>13</v>
       </c>
       <c r="F170">
-        <v>4.8438192542374359E-2</v>
+        <v>0.13017476391708999</v>
       </c>
       <c r="G170">
-        <v>0.13809852297959091</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H170">
-        <v>4.8438192542374363</v>
+        <v>13.017476391709</v>
       </c>
       <c r="I170">
-        <v>13.80985229795909</v>
+        <v>16.666666666666671</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -5402,22 +5469,22 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.81977768972494891</v>
+        <v>9.9083480190861106E-2</v>
       </c>
       <c r="E171">
-        <v>3.4173450261043929</v>
+        <v>12.634819437565399</v>
       </c>
       <c r="F171">
-        <v>9.1086409969438731E-2</v>
+        <v>1.100927557676235E-2</v>
       </c>
       <c r="G171">
-        <v>4.3812115719287087E-2</v>
+        <v>0.1619848645841718</v>
       </c>
       <c r="H171">
-        <v>9.1086409969438726</v>
+        <v>1.100927557676235</v>
       </c>
       <c r="I171">
-        <v>4.3812115719287084</v>
+        <v>16.198486458417179</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -5428,25 +5495,25 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>0.57577574987269653</v>
+        <v>0.65356789468263266</v>
       </c>
       <c r="E172">
-        <v>1.735078208278622</v>
+        <v>3.782525588538995</v>
       </c>
       <c r="F172">
-        <v>6.3975083319188497E-2</v>
+        <v>7.2618654964736962E-2</v>
       </c>
       <c r="G172">
-        <v>2.2244592413828489E-2</v>
+        <v>4.8493917801782027E-2</v>
       </c>
       <c r="H172">
-        <v>6.3975083319188499</v>
+        <v>7.2618654964736962</v>
       </c>
       <c r="I172">
-        <v>2.2244592413828488</v>
+        <v>4.8493917801782027</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -5457,25 +5524,25 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>0.31959610746631922</v>
+        <v>0.78270094880061425</v>
       </c>
       <c r="E173">
-        <v>0.61242971558404236</v>
+        <v>3.4526214614939481</v>
       </c>
       <c r="F173">
-        <v>3.551067860736884E-2</v>
+        <v>8.69667720889572E-2</v>
       </c>
       <c r="G173">
-        <v>7.8516630203082638E-3</v>
+        <v>4.4264377711460863E-2</v>
       </c>
       <c r="H173">
-        <v>3.5510678607368842</v>
+        <v>8.6966772088957196</v>
       </c>
       <c r="I173">
-        <v>0.78516630203082638</v>
+        <v>4.4264377711460856</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5486,25 +5553,25 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>0.64758439708516002</v>
+        <v>2.9550408335265121E-2</v>
       </c>
       <c r="E174">
-        <v>14.89841108054687</v>
+        <v>1.6158854920078769</v>
       </c>
       <c r="F174">
-        <v>7.1953821898351145E-2</v>
+        <v>3.2833787039183711E-3</v>
       </c>
       <c r="G174">
-        <v>0.19100527026342129</v>
+        <v>2.0716480666767619E-2</v>
       </c>
       <c r="H174">
-        <v>7.1953821898351142</v>
+        <v>0.32833787039183709</v>
       </c>
       <c r="I174">
-        <v>19.100527026342139</v>
+        <v>2.071648066676762</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -5515,25 +5582,25 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>1.1715728752538099</v>
+        <v>0.31265805665053659</v>
       </c>
       <c r="E175">
-        <v>13</v>
+        <v>7.3450337629898934</v>
       </c>
       <c r="F175">
-        <v>0.13017476391708999</v>
+        <v>3.4739784072281843E-2</v>
       </c>
       <c r="G175">
-        <v>0.16666666666666671</v>
+        <v>9.41670995255115E-2</v>
       </c>
       <c r="H175">
-        <v>13.017476391709</v>
+        <v>3.4739784072281839</v>
       </c>
       <c r="I175">
-        <v>16.666666666666671</v>
+        <v>9.41670995255115</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -5544,25 +5611,25 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>9.9083480190861106E-2</v>
+        <v>9.1331100097028273E-2</v>
       </c>
       <c r="E176">
-        <v>12.634819437565399</v>
+        <v>9.8299041270450402</v>
       </c>
       <c r="F176">
-        <v>1.100927557676235E-2</v>
+        <v>1.0147900010780919E-2</v>
       </c>
       <c r="G176">
-        <v>0.1619848645841718</v>
+        <v>0.12602441188519289</v>
       </c>
       <c r="H176">
-        <v>1.100927557676235</v>
+        <v>1.0147900010780919</v>
       </c>
       <c r="I176">
-        <v>16.198486458417179</v>
+        <v>12.60244118851929</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -5576,22 +5643,22 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0.65356789468263266</v>
+        <v>0.94974746830583268</v>
       </c>
       <c r="E177">
-        <v>3.782525588538995</v>
+        <v>13</v>
       </c>
       <c r="F177">
-        <v>7.2618654964736962E-2</v>
+        <v>0.10552749647842589</v>
       </c>
       <c r="G177">
-        <v>4.8493917801782027E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H177">
-        <v>7.2618654964736962</v>
+        <v>10.552749647842591</v>
       </c>
       <c r="I177">
-        <v>4.8493917801782027</v>
+        <v>16.666666666666671</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -5605,22 +5672,22 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0.78270094880061425</v>
+        <v>1.1866901055481791</v>
       </c>
       <c r="E178">
-        <v>3.4526214614939481</v>
+        <v>5.9374918255491016</v>
       </c>
       <c r="F178">
-        <v>8.69667720889572E-2</v>
+        <v>0.13185445617201991</v>
       </c>
       <c r="G178">
-        <v>4.4264377711460863E-2</v>
+        <v>7.6121690071142334E-2</v>
       </c>
       <c r="H178">
-        <v>8.6966772088957196</v>
+        <v>13.18544561720199</v>
       </c>
       <c r="I178">
-        <v>4.4264377711460856</v>
+        <v>7.6121690071142334</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -5634,22 +5701,22 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2.9550408335265121E-2</v>
+        <v>0.78270094880061425</v>
       </c>
       <c r="E179">
-        <v>1.6158854920078769</v>
+        <v>3.4526214614939481</v>
       </c>
       <c r="F179">
-        <v>3.2833787039183711E-3</v>
+        <v>8.69667720889572E-2</v>
       </c>
       <c r="G179">
-        <v>2.0716480666767619E-2</v>
+        <v>4.4264377711460863E-2</v>
       </c>
       <c r="H179">
-        <v>0.32833787039183709</v>
+        <v>8.6966772088957196</v>
       </c>
       <c r="I179">
-        <v>2.071648066676762</v>
+        <v>4.4264377711460856</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,25 +5727,25 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>0.31265805665053659</v>
+        <v>0.72358526421388447</v>
       </c>
       <c r="E180">
-        <v>7.3450337629898934</v>
+        <v>1.872440648471112</v>
       </c>
       <c r="F180">
-        <v>3.4739784072281843E-2</v>
+        <v>8.0398362690431657E-2</v>
       </c>
       <c r="G180">
-        <v>9.41670995255115E-2</v>
+        <v>2.4005649339373211E-2</v>
       </c>
       <c r="H180">
-        <v>3.4739784072281839</v>
+        <v>8.0398362690431657</v>
       </c>
       <c r="I180">
-        <v>9.41670995255115</v>
+        <v>2.400564933937321</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5689,22 +5756,22 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>9.1331100097028273E-2</v>
+        <v>0.61577568108951919</v>
       </c>
       <c r="E181">
         <v>9.8299041270450402</v>
       </c>
       <c r="F181">
-        <v>1.0147900010780919E-2</v>
+        <v>6.8419520121057675E-2</v>
       </c>
       <c r="G181">
         <v>0.12602441188519289</v>
       </c>
       <c r="H181">
-        <v>1.0147900010780919</v>
+        <v>6.841952012105768</v>
       </c>
       <c r="I181">
         <v>12.60244118851929</v>
@@ -5718,25 +5785,25 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>0.94974746830583268</v>
+        <v>0.47213595499957961</v>
       </c>
       <c r="E182">
-        <v>13</v>
+        <v>5.43494882292201</v>
       </c>
       <c r="F182">
-        <v>0.10552749647842589</v>
+        <v>5.2459550555508883E-2</v>
       </c>
       <c r="G182">
-        <v>0.16666666666666671</v>
+        <v>6.9678831063102686E-2</v>
       </c>
       <c r="H182">
-        <v>10.552749647842591</v>
+        <v>5.2459550555508887</v>
       </c>
       <c r="I182">
-        <v>16.666666666666671</v>
+        <v>6.9678831063102686</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -5750,22 +5817,22 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>1.1866901055481791</v>
+        <v>0.27444940311492599</v>
       </c>
       <c r="E183">
-        <v>5.9374918255491016</v>
+        <v>11.728315207591921</v>
       </c>
       <c r="F183">
-        <v>0.13185445617201991</v>
+        <v>3.0494378123880669E-2</v>
       </c>
       <c r="G183">
-        <v>7.6121690071142334E-2</v>
+        <v>0.15036301548194761</v>
       </c>
       <c r="H183">
-        <v>13.18544561720199</v>
+        <v>3.0494378123880672</v>
       </c>
       <c r="I183">
-        <v>7.6121690071142334</v>
+        <v>15.036301548194761</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -5779,22 +5846,22 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0.78270094880061425</v>
+        <v>0.31265805665053659</v>
       </c>
       <c r="E184">
-        <v>3.4526214614939481</v>
+        <v>7.3450337629898934</v>
       </c>
       <c r="F184">
-        <v>8.69667720889572E-2</v>
+        <v>3.4739784072281843E-2</v>
       </c>
       <c r="G184">
-        <v>4.4264377711460863E-2</v>
+        <v>9.41670995255115E-2</v>
       </c>
       <c r="H184">
-        <v>8.6966772088957196</v>
+        <v>3.4739784072281839</v>
       </c>
       <c r="I184">
-        <v>4.4264377711460856</v>
+        <v>9.41670995255115</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -5805,25 +5872,25 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>0.72358526421388447</v>
+        <v>0.98155618430147351</v>
       </c>
       <c r="E185">
-        <v>1.872440648471112</v>
+        <v>11.728315207591921</v>
       </c>
       <c r="F185">
-        <v>8.0398362690431657E-2</v>
+        <v>0.10906179825571929</v>
       </c>
       <c r="G185">
-        <v>2.4005649339373211E-2</v>
+        <v>0.15036301548194761</v>
       </c>
       <c r="H185">
-        <v>8.0398362690431657</v>
+        <v>10.906179825571931</v>
       </c>
       <c r="I185">
-        <v>2.400564933937321</v>
+        <v>15.036301548194761</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -5834,25 +5901,25 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>0.61577568108951919</v>
+        <v>1.1715728752538099</v>
       </c>
       <c r="E186">
-        <v>9.8299041270450402</v>
+        <v>13</v>
       </c>
       <c r="F186">
-        <v>6.8419520121057675E-2</v>
+        <v>0.13017476391708999</v>
       </c>
       <c r="G186">
-        <v>0.12602441188519289</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="H186">
-        <v>6.841952012105768</v>
+        <v>13.017476391709</v>
       </c>
       <c r="I186">
-        <v>12.60244118851929</v>
+        <v>16.666666666666671</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -5863,25 +5930,25 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>0.47213595499957961</v>
+        <v>0.16484854230934909</v>
       </c>
       <c r="E187">
-        <v>5.43494882292201</v>
+        <v>7.4823962031823834</v>
       </c>
       <c r="F187">
-        <v>5.2459550555508883E-2</v>
+        <v>1.831650470103879E-2</v>
       </c>
       <c r="G187">
-        <v>6.9678831063102686E-2</v>
+        <v>9.5928156451056193E-2</v>
       </c>
       <c r="H187">
-        <v>5.2459550555508887</v>
+        <v>1.8316504701038789</v>
       </c>
       <c r="I187">
-        <v>6.9678831063102686</v>
+        <v>9.5928156451056186</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -5895,22 +5962,22 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0.27444940311492599</v>
+        <v>0.16484854230934909</v>
       </c>
       <c r="E188">
-        <v>11.728315207591921</v>
+        <v>10.952552619739629</v>
       </c>
       <c r="F188">
-        <v>3.0494378123880669E-2</v>
+        <v>1.831650470103879E-2</v>
       </c>
       <c r="G188">
-        <v>0.15036301548194761</v>
+        <v>0.14041734127871319</v>
       </c>
       <c r="H188">
-        <v>3.0494378123880672</v>
+        <v>1.8316504701038789</v>
       </c>
       <c r="I188">
-        <v>15.036301548194761</v>
+        <v>14.041734127871321</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -5921,25 +5988,25 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>0.31265805665053659</v>
+        <v>0.16484854230934909</v>
       </c>
       <c r="E189">
-        <v>7.3450337629898934</v>
+        <v>7.4823962031823834</v>
       </c>
       <c r="F189">
-        <v>3.4739784072281843E-2</v>
+        <v>1.831650470103879E-2</v>
       </c>
       <c r="G189">
-        <v>9.41670995255115E-2</v>
+        <v>9.5928156451056193E-2</v>
       </c>
       <c r="H189">
-        <v>3.4739784072281839</v>
+        <v>1.8316504701038789</v>
       </c>
       <c r="I189">
-        <v>9.41670995255115</v>
+        <v>9.5928156451056186</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -5950,25 +6017,25 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>0.98155618430147351</v>
+        <v>0.43594373288136928</v>
       </c>
       <c r="E190">
-        <v>11.728315207591921</v>
+        <v>10.771684792408079</v>
       </c>
       <c r="F190">
-        <v>0.10906179825571929</v>
+        <v>4.8438192542374359E-2</v>
       </c>
       <c r="G190">
-        <v>0.15036301548194761</v>
+        <v>0.13809852297959091</v>
       </c>
       <c r="H190">
-        <v>10.906179825571931</v>
+        <v>4.8438192542374363</v>
       </c>
       <c r="I190">
-        <v>15.036301548194761</v>
+        <v>13.80985229795909</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -5979,25 +6046,25 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>1.1715728752538099</v>
+        <v>0.1014633252536417</v>
       </c>
       <c r="E191">
-        <v>13</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F191">
-        <v>0.13017476391708999</v>
+        <v>1.1273702805960181E-2</v>
       </c>
       <c r="G191">
-        <v>0.16666666666666671</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H191">
-        <v>13.017476391709</v>
+        <v>1.127370280596018</v>
       </c>
       <c r="I191">
-        <v>16.666666666666671</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -6008,25 +6075,25 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>0.16484854230934909</v>
+        <v>0.55346582216195861</v>
       </c>
       <c r="E192">
-        <v>7.4823962031823834</v>
+        <v>7.6355855403869199</v>
       </c>
       <c r="F192">
-        <v>1.831650470103879E-2</v>
+        <v>6.1496202462439857E-2</v>
       </c>
       <c r="G192">
-        <v>9.5928156451056193E-2</v>
+        <v>9.7892122312652818E-2</v>
       </c>
       <c r="H192">
-        <v>1.8316504701038789</v>
+        <v>6.1496202462439866</v>
       </c>
       <c r="I192">
-        <v>9.5928156451056186</v>
+        <v>9.7892122312652816</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -6037,25 +6104,25 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>0.16484854230934909</v>
+        <v>0.3393637070003086</v>
       </c>
       <c r="E193">
-        <v>10.952552619739629</v>
+        <v>1.217992348606626</v>
       </c>
       <c r="F193">
-        <v>1.831650470103879E-2</v>
+        <v>3.7707078555589857E-2</v>
       </c>
       <c r="G193">
-        <v>0.14041734127871319</v>
+        <v>1.5615286520597779E-2</v>
       </c>
       <c r="H193">
-        <v>1.8316504701038789</v>
+        <v>3.7707078555589861</v>
       </c>
       <c r="I193">
-        <v>14.041734127871321</v>
+        <v>1.561528652059778</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -6069,22 +6136,22 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0.16484854230934909</v>
+        <v>0.55346582216195861</v>
       </c>
       <c r="E194">
-        <v>7.4823962031823834</v>
+        <v>7.6355855403869199</v>
       </c>
       <c r="F194">
-        <v>1.831650470103879E-2</v>
+        <v>6.1496202462439857E-2</v>
       </c>
       <c r="G194">
-        <v>9.5928156451056193E-2</v>
+        <v>9.7892122312652818E-2</v>
       </c>
       <c r="H194">
-        <v>1.8316504701038789</v>
+        <v>6.1496202462439866</v>
       </c>
       <c r="I194">
-        <v>9.5928156451056186</v>
+        <v>9.7892122312652816</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -6095,25 +6162,25 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>0.43594373288136928</v>
+        <v>0.30152991995724321</v>
       </c>
       <c r="E195">
-        <v>10.771684792408079</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F195">
-        <v>4.8438192542374359E-2</v>
+        <v>3.3503324439693671E-2</v>
       </c>
       <c r="G195">
-        <v>0.13809852297959091</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H195">
-        <v>4.8438192542374363</v>
+        <v>3.3503324439693669</v>
       </c>
       <c r="I195">
-        <v>13.80985229795909</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -6124,25 +6191,25 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>0.1014633252536417</v>
+        <v>0.41296784459834329</v>
       </c>
       <c r="E196">
-        <v>11.70063671746491</v>
+        <v>6.0456704804548016</v>
       </c>
       <c r="F196">
-        <v>1.1273702805960181E-2</v>
+        <v>4.5885316066482613E-2</v>
       </c>
       <c r="G196">
-        <v>0.15000816304442191</v>
+        <v>7.7508595903266697E-2</v>
       </c>
       <c r="H196">
-        <v>1.127370280596018</v>
+        <v>4.5885316066482602</v>
       </c>
       <c r="I196">
-        <v>15.000816304442189</v>
+        <v>7.7508595903266686</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -6153,25 +6220,25 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>0.55346582216195861</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E197">
-        <v>7.6355855403869199</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F197">
-        <v>6.1496202462439857E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G197">
-        <v>9.7892122312652818E-2</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H197">
-        <v>6.1496202462439866</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I197">
-        <v>9.7892122312652816</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -6185,22 +6252,22 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.3393637070003086</v>
+        <v>0.30692347708947582</v>
       </c>
       <c r="E198">
-        <v>1.217992348606626</v>
+        <v>8.7585469906207578</v>
       </c>
       <c r="F198">
-        <v>3.7707078555589857E-2</v>
+        <v>3.4102608565497287E-2</v>
       </c>
       <c r="G198">
-        <v>1.5615286520597779E-2</v>
+        <v>0.1122890639823174</v>
       </c>
       <c r="H198">
-        <v>3.7707078555589861</v>
+        <v>3.410260856549729</v>
       </c>
       <c r="I198">
-        <v>1.561528652059778</v>
+        <v>11.228906398231739</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -6211,25 +6278,25 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>0.55346582216195861</v>
+        <v>0.78733745981411651</v>
       </c>
       <c r="E199">
-        <v>7.6355855403869199</v>
+        <v>6.5591943131229939</v>
       </c>
       <c r="F199">
-        <v>6.1496202462439857E-2</v>
+        <v>8.7481939979346279E-2</v>
       </c>
       <c r="G199">
-        <v>9.7892122312652818E-2</v>
+        <v>8.409223478362815E-2</v>
       </c>
       <c r="H199">
-        <v>6.1496202462439866</v>
+        <v>8.7481939979346279</v>
       </c>
       <c r="I199">
-        <v>9.7892122312652816</v>
+        <v>8.409223478362815</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -6240,25 +6307,25 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>0.30152991995724321</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E200">
-        <v>11.70063671746491</v>
+        <v>8.6000106050373262</v>
       </c>
       <c r="F200">
-        <v>3.3503324439693671E-2</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G200">
-        <v>0.15000816304442191</v>
+        <v>0.1102565462184272</v>
       </c>
       <c r="H200">
-        <v>3.3503324439693669</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I200">
-        <v>15.000816304442189</v>
+        <v>11.025654621842721</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -6272,22 +6339,22 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0.41296784459834329</v>
+        <v>0.61282229512315656</v>
       </c>
       <c r="E201">
-        <v>6.0456704804548016</v>
+        <v>4.6934958135427749</v>
       </c>
       <c r="F201">
-        <v>4.5885316066482613E-2</v>
+        <v>6.8091366124795161E-2</v>
       </c>
       <c r="G201">
-        <v>7.7508595903266697E-2</v>
+        <v>6.0173023250548408E-2</v>
       </c>
       <c r="H201">
-        <v>4.5885316066482602</v>
+        <v>6.8091366124795174</v>
       </c>
       <c r="I201">
-        <v>7.7508595903266686</v>
+        <v>6.0173023250548408</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -6298,25 +6365,25 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>0.15419066952150781</v>
+        <v>1.097709493580443</v>
       </c>
       <c r="E202">
-        <v>3.781241548571856</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F202">
-        <v>1.7132296613500849E-2</v>
+        <v>0.1219677215089381</v>
       </c>
       <c r="G202">
-        <v>4.8477455750921217E-2</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H202">
-        <v>1.713229661350085</v>
+        <v>12.196772150893811</v>
       </c>
       <c r="I202">
-        <v>4.8477455750921212</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -6327,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0.30692347708947582</v>
@@ -6359,22 +6426,22 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>0.78733745981411651</v>
+        <v>0.19229451560428151</v>
       </c>
       <c r="E204">
-        <v>6.5591943131229939</v>
+        <v>7.7044661710783728</v>
       </c>
       <c r="F204">
-        <v>8.7481939979346279E-2</v>
+        <v>2.1366057289364689E-2</v>
       </c>
       <c r="G204">
-        <v>8.409223478362815E-2</v>
+        <v>9.8775207321517566E-2</v>
       </c>
       <c r="H204">
-        <v>8.7481939979346279</v>
+        <v>2.1366057289364688</v>
       </c>
       <c r="I204">
-        <v>8.409223478362815</v>
+        <v>9.8775207321517566</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -6388,22 +6455,22 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>7.30518394373183E-2</v>
+        <v>0.32889733426916662</v>
       </c>
       <c r="E205">
-        <v>8.6000106050373262</v>
+        <v>7.7044661710783728</v>
       </c>
       <c r="F205">
-        <v>8.1168710485909346E-3</v>
+        <v>3.6544148252129698E-2</v>
       </c>
       <c r="G205">
-        <v>0.1102565462184272</v>
+        <v>9.8775207321517566E-2</v>
       </c>
       <c r="H205">
-        <v>0.81168710485909346</v>
+        <v>3.65441482521297</v>
       </c>
       <c r="I205">
-        <v>11.025654621842721</v>
+        <v>9.8775207321517566</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -6414,25 +6481,25 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>0.61282229512315656</v>
+        <v>0.20800093924989671</v>
       </c>
       <c r="E206">
-        <v>4.6934958135427749</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F206">
-        <v>6.8091366124795161E-2</v>
+        <v>2.311121547221073E-2</v>
       </c>
       <c r="G206">
-        <v>6.0173023250548408E-2</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H206">
-        <v>6.8091366124795174</v>
+        <v>2.3111215472210729</v>
       </c>
       <c r="I206">
-        <v>6.0173023250548408</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -6443,25 +6510,25 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>1.097709493580443</v>
+        <v>0.612297693849011</v>
       </c>
       <c r="E207">
-        <v>2.483162306003905</v>
+        <v>7.69068195494782E-2</v>
       </c>
       <c r="F207">
-        <v>0.1219677215089381</v>
+        <v>6.8033077094334482E-2</v>
       </c>
       <c r="G207">
-        <v>3.1835414179537218E-2</v>
+        <v>9.8598486601886304E-4</v>
       </c>
       <c r="H207">
-        <v>12.196772150893811</v>
+        <v>6.8033077094334482</v>
       </c>
       <c r="I207">
-        <v>3.1835414179537218</v>
+        <v>9.8598486601886304E-2</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -6475,22 +6542,22 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0.30692347708947582</v>
+        <v>0.70203232823940098</v>
       </c>
       <c r="E208">
-        <v>8.7585469906207578</v>
+        <v>4.5343702981234202</v>
       </c>
       <c r="F208">
-        <v>3.4102608565497287E-2</v>
+        <v>7.8003592026600121E-2</v>
       </c>
       <c r="G208">
-        <v>0.1122890639823174</v>
+        <v>5.8132952540043803E-2</v>
       </c>
       <c r="H208">
-        <v>3.410260856549729</v>
+        <v>7.8003592026600117</v>
       </c>
       <c r="I208">
-        <v>11.228906398231739</v>
+        <v>5.8132952540043803</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -6501,25 +6568,25 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
-        <v>0.19229451560428151</v>
+        <v>0.70215358003352435</v>
       </c>
       <c r="E209">
-        <v>7.7044661710783728</v>
+        <v>2.5520429366953512</v>
       </c>
       <c r="F209">
-        <v>2.1366057289364689E-2</v>
+        <v>7.801706444816936E-2</v>
       </c>
       <c r="G209">
-        <v>9.8775207321517566E-2</v>
+        <v>3.2718499188401862E-2</v>
       </c>
       <c r="H209">
-        <v>2.1366057289364688</v>
+        <v>7.8017064448169364</v>
       </c>
       <c r="I209">
-        <v>9.8775207321517566</v>
+        <v>3.2718499188401862</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -6533,22 +6600,22 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>0.32889733426916662</v>
+        <v>0.7924302503512477</v>
       </c>
       <c r="E210">
-        <v>7.7044661710783728</v>
+        <v>2.784813581918598</v>
       </c>
       <c r="F210">
-        <v>3.6544148252129698E-2</v>
+        <v>8.8047805594583028E-2</v>
       </c>
       <c r="G210">
-        <v>9.8775207321517566E-2</v>
+        <v>3.5702738229725688E-2</v>
       </c>
       <c r="H210">
-        <v>3.65441482521297</v>
+        <v>8.8047805594583028</v>
       </c>
       <c r="I210">
-        <v>9.8775207321517566</v>
+        <v>3.570273822972569</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -6559,25 +6626,25 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
-        <v>0.20800093924989671</v>
+        <v>1.075288574003759</v>
       </c>
       <c r="E211">
-        <v>3.2181528636301731</v>
+        <v>0.61805293625960189</v>
       </c>
       <c r="F211">
-        <v>2.311121547221073E-2</v>
+        <v>0.1194765082226399</v>
       </c>
       <c r="G211">
-        <v>4.1258370046540649E-2</v>
+        <v>7.9237555930719017E-3</v>
       </c>
       <c r="H211">
-        <v>2.3111215472210729</v>
+        <v>11.94765082226399</v>
       </c>
       <c r="I211">
-        <v>4.1258370046540644</v>
+        <v>0.79237555930719017</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -6591,22 +6658,22 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>0.612297693849011</v>
+        <v>0.70203232823940098</v>
       </c>
       <c r="E212">
-        <v>7.69068195494782E-2</v>
+        <v>4.5343702981234202</v>
       </c>
       <c r="F212">
-        <v>6.8033077094334482E-2</v>
+        <v>7.8003592026600121E-2</v>
       </c>
       <c r="G212">
-        <v>9.8598486601886304E-4</v>
+        <v>5.8132952540043803E-2</v>
       </c>
       <c r="H212">
-        <v>6.8033077094334482</v>
+        <v>7.8003592026600117</v>
       </c>
       <c r="I212">
-        <v>9.8598486601886304E-2</v>
+        <v>5.8132952540043803</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -6620,22 +6687,22 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0.70203232823940098</v>
+        <v>1.17980961271128</v>
       </c>
       <c r="E213">
-        <v>4.5343702981234202</v>
+        <v>3.289593837123832</v>
       </c>
       <c r="F213">
-        <v>7.8003592026600121E-2</v>
+        <v>0.13108995696792</v>
       </c>
       <c r="G213">
-        <v>5.8132952540043803E-2</v>
+        <v>4.217427996312606E-2</v>
       </c>
       <c r="H213">
-        <v>7.8003592026600117</v>
+        <v>13.108995696792</v>
       </c>
       <c r="I213">
-        <v>5.8132952540043803</v>
+        <v>4.2174279963126056</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -6646,25 +6713,25 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>0.70215358003352435</v>
+        <v>8.9264424867413261E-2</v>
       </c>
       <c r="E214">
-        <v>2.5520429366953512</v>
+        <v>0.97186212367252267</v>
       </c>
       <c r="F214">
-        <v>7.801706444816936E-2</v>
+        <v>9.9182694297126339E-3</v>
       </c>
       <c r="G214">
-        <v>3.2718499188401862E-2</v>
+        <v>1.2459770816314331E-2</v>
       </c>
       <c r="H214">
-        <v>7.8017064448169364</v>
+        <v>0.99182694297126339</v>
       </c>
       <c r="I214">
-        <v>3.2718499188401862</v>
+        <v>1.2459770816314331</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -6678,22 +6745,22 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0.7924302503512477</v>
+        <v>0.3737264552873345</v>
       </c>
       <c r="E215">
-        <v>2.784813581918598</v>
+        <v>1.5130082403826319</v>
       </c>
       <c r="F215">
-        <v>8.8047805594583028E-2</v>
+        <v>4.1525161698592772E-2</v>
       </c>
       <c r="G215">
-        <v>3.5702738229725688E-2</v>
+        <v>1.9397541543367151E-2</v>
       </c>
       <c r="H215">
-        <v>8.8047805594583028</v>
+        <v>4.1525161698592772</v>
       </c>
       <c r="I215">
-        <v>3.570273822972569</v>
+        <v>1.9397541543367149</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -6707,22 +6774,22 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1.075288574003759</v>
+        <v>5.0033569388981292E-2</v>
       </c>
       <c r="E216">
-        <v>0.61805293625960189</v>
+        <v>7.3277991987359599</v>
       </c>
       <c r="F216">
-        <v>0.1194765082226399</v>
+        <v>5.5592854876646003E-3</v>
       </c>
       <c r="G216">
-        <v>7.9237555930719017E-3</v>
+        <v>9.3946143573537921E-2</v>
       </c>
       <c r="H216">
-        <v>11.94765082226399</v>
+        <v>0.55592854876646003</v>
       </c>
       <c r="I216">
-        <v>0.79237555930719017</v>
+        <v>9.3946143573537917</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -6733,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>0.70203232823940098</v>
@@ -6765,22 +6832,22 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>1.17980961271128</v>
+        <v>0.14179073669232339</v>
       </c>
       <c r="E218">
-        <v>3.289593837123832</v>
+        <v>8.2917901793749138E-2</v>
       </c>
       <c r="F218">
-        <v>0.13108995696792</v>
+        <v>1.575452629914709E-2</v>
       </c>
       <c r="G218">
-        <v>4.217427996312606E-2</v>
+        <v>1.063050022996781E-3</v>
       </c>
       <c r="H218">
-        <v>13.108995696792</v>
+        <v>1.5754526299147089</v>
       </c>
       <c r="I218">
-        <v>4.2174279963126056</v>
+        <v>0.1063050022996781</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -6791,25 +6858,25 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>8.9264424867413261E-2</v>
+        <v>0.27327589060630147</v>
       </c>
       <c r="E219">
-        <v>0.97186212367252267</v>
+        <v>4.054653807088954</v>
       </c>
       <c r="F219">
-        <v>9.9182694297126339E-3</v>
+        <v>3.0363987845144599E-2</v>
       </c>
       <c r="G219">
-        <v>1.2459770816314331E-2</v>
+        <v>5.1982741116525122E-2</v>
       </c>
       <c r="H219">
-        <v>0.99182694297126339</v>
+        <v>3.0363987845144602</v>
       </c>
       <c r="I219">
-        <v>1.2459770816314331</v>
+        <v>5.1982741116525126</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -6820,25 +6887,25 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>0.3737264552873345</v>
+        <v>0.91079439606030022</v>
       </c>
       <c r="E220">
-        <v>1.5130082403826319</v>
+        <v>5.1284465212381889</v>
       </c>
       <c r="F220">
-        <v>4.1525161698592772E-2</v>
+        <v>0.1011993773400334</v>
       </c>
       <c r="G220">
-        <v>1.9397541543367151E-2</v>
+        <v>6.5749314374848655E-2</v>
       </c>
       <c r="H220">
-        <v>4.1525161698592772</v>
+        <v>10.11993773400334</v>
       </c>
       <c r="I220">
-        <v>1.9397541543367149</v>
+        <v>6.5749314374848664</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -6849,25 +6916,25 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>5.0033569388981292E-2</v>
+        <v>0.68755207484297909</v>
       </c>
       <c r="E221">
-        <v>7.3277991987359599</v>
+        <v>1.855301129591169</v>
       </c>
       <c r="F221">
-        <v>5.5592854876646003E-3</v>
+        <v>7.6394674982553257E-2</v>
       </c>
       <c r="G221">
-        <v>9.3946143573537921E-2</v>
+        <v>2.3785911917835519E-2</v>
       </c>
       <c r="H221">
-        <v>0.55592854876646003</v>
+        <v>7.6394674982553257</v>
       </c>
       <c r="I221">
-        <v>9.3946143573537917</v>
+        <v>2.3785911917835518</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -6878,25 +6945,25 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222">
-        <v>0.70203232823940098</v>
+        <v>0.49215512711404052</v>
       </c>
       <c r="E222">
-        <v>4.5343702981234202</v>
+        <v>6.6276447267885459</v>
       </c>
       <c r="F222">
-        <v>7.8003592026600121E-2</v>
+        <v>5.468390301267112E-2</v>
       </c>
       <c r="G222">
-        <v>5.8132952540043803E-2</v>
+        <v>8.4969804189596765E-2</v>
       </c>
       <c r="H222">
-        <v>7.8003592026600117</v>
+        <v>5.468390301267112</v>
       </c>
       <c r="I222">
-        <v>5.8132952540043803</v>
+        <v>8.4969804189596765</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -6910,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>0.14179073669232339</v>
+        <v>2.4679273374327231</v>
       </c>
       <c r="E223">
-        <v>8.2917901793749138E-2</v>
+        <v>3.63186584718872</v>
       </c>
       <c r="F223">
-        <v>1.575452629914709E-2</v>
+        <v>0.2742141486036358</v>
       </c>
       <c r="G223">
-        <v>1.063050022996781E-3</v>
+        <v>4.6562382656265673E-2</v>
       </c>
       <c r="H223">
-        <v>1.5754526299147089</v>
+        <v>27.42141486036358</v>
       </c>
       <c r="I223">
-        <v>0.1063050022996781</v>
+        <v>4.6562382656265662</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -6939,22 +7006,22 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>0.27327589060630147</v>
+        <v>0.3531887188990126</v>
       </c>
       <c r="E224">
-        <v>4.054653807088954</v>
+        <v>3.4818782660367589</v>
       </c>
       <c r="F224">
-        <v>3.0363987845144599E-2</v>
+        <v>3.9243190988779153E-2</v>
       </c>
       <c r="G224">
-        <v>5.1982741116525122E-2</v>
+        <v>4.4639464949189238E-2</v>
       </c>
       <c r="H224">
-        <v>3.0363987845144602</v>
+        <v>3.9243190988779149</v>
       </c>
       <c r="I224">
-        <v>5.1982741116525126</v>
+        <v>4.4639464949189236</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -6968,22 +7035,22 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0.91079439606030022</v>
+        <v>0.50876367842764481</v>
       </c>
       <c r="E225">
-        <v>5.1284465212381889</v>
+        <v>7.2268546083529799</v>
       </c>
       <c r="F225">
-        <v>0.1011993773400334</v>
+        <v>5.6529297603071571E-2</v>
       </c>
       <c r="G225">
-        <v>6.5749314374848655E-2</v>
+        <v>9.265198215837156E-2</v>
       </c>
       <c r="H225">
-        <v>10.11993773400334</v>
+        <v>5.6529297603071571</v>
       </c>
       <c r="I225">
-        <v>6.5749314374848664</v>
+        <v>9.265198215837156</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -6994,25 +7061,25 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>0.68755207484297909</v>
+        <v>0.37102138625154879</v>
       </c>
       <c r="E226">
-        <v>1.855301129591169</v>
+        <v>3.9329888468018339</v>
       </c>
       <c r="F226">
-        <v>7.6394674982553257E-2</v>
+        <v>4.1224598472394243E-2</v>
       </c>
       <c r="G226">
-        <v>2.3785911917835519E-2</v>
+        <v>5.0422933933356839E-2</v>
       </c>
       <c r="H226">
-        <v>7.6394674982553257</v>
+        <v>4.1224598472394236</v>
       </c>
       <c r="I226">
-        <v>2.3785911917835518</v>
+        <v>5.0422933933356839</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -7026,22 +7093,22 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0.49215512711404052</v>
+        <v>0.48683298050513812</v>
       </c>
       <c r="E227">
-        <v>6.6276447267885459</v>
+        <v>6.43494882292201</v>
       </c>
       <c r="F227">
-        <v>5.468390301267112E-2</v>
+        <v>5.4092553389459841E-2</v>
       </c>
       <c r="G227">
-        <v>8.4969804189596765E-2</v>
+        <v>8.2499343883615461E-2</v>
       </c>
       <c r="H227">
-        <v>5.468390301267112</v>
+        <v>5.4092553389459841</v>
       </c>
       <c r="I227">
-        <v>8.4969804189596765</v>
+        <v>8.2499343883615452</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -7052,25 +7119,25 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>2.4679273374327231</v>
+        <v>0.48683298050513812</v>
       </c>
       <c r="E228">
-        <v>3.63186584718872</v>
+        <v>6.43494882292201</v>
       </c>
       <c r="F228">
-        <v>0.2742141486036358</v>
+        <v>5.4092553389459841E-2</v>
       </c>
       <c r="G228">
-        <v>4.6562382656265673E-2</v>
+        <v>8.2499343883615461E-2</v>
       </c>
       <c r="H228">
-        <v>27.42141486036358</v>
+        <v>5.4092553389459841</v>
       </c>
       <c r="I228">
-        <v>4.6562382656265662</v>
+        <v>8.2499343883615452</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7081,25 +7148,25 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>0.3531887188990126</v>
+        <v>1.607602093132227</v>
       </c>
       <c r="E229">
-        <v>3.4818782660367589</v>
+        <v>7.2455217797487137</v>
       </c>
       <c r="F229">
-        <v>3.9243190988779153E-2</v>
+        <v>0.17862245479246969</v>
       </c>
       <c r="G229">
-        <v>4.4639464949189238E-2</v>
+        <v>9.2891304868573221E-2</v>
       </c>
       <c r="H229">
-        <v>3.9243190988779149</v>
+        <v>17.862245479246969</v>
       </c>
       <c r="I229">
-        <v>4.4639464949189236</v>
+        <v>9.2891304868573226</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7110,25 +7177,25 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>0.50876367842764481</v>
+        <v>1.333586434002044</v>
       </c>
       <c r="E230">
-        <v>7.2268546083529799</v>
+        <v>2.36989764584402</v>
       </c>
       <c r="F230">
-        <v>5.6529297603071571E-2</v>
+        <v>0.14817627044467141</v>
       </c>
       <c r="G230">
-        <v>9.265198215837156E-2</v>
+        <v>3.0383303151846449E-2</v>
       </c>
       <c r="H230">
-        <v>5.6529297603071571</v>
+        <v>14.817627044467139</v>
       </c>
       <c r="I230">
-        <v>9.265198215837156</v>
+        <v>3.0383303151846448</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -7139,25 +7206,25 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>0.37102138625154879</v>
+        <v>9.3093933475261181E-2</v>
       </c>
       <c r="E231">
-        <v>3.9329888468018339</v>
+        <v>5.2542614938342069</v>
       </c>
       <c r="F231">
-        <v>4.1224598472394243E-2</v>
+        <v>1.0343770386140091E-2</v>
       </c>
       <c r="G231">
-        <v>5.0422933933356839E-2</v>
+        <v>6.736232684402832E-2</v>
       </c>
       <c r="H231">
-        <v>4.1224598472394236</v>
+        <v>1.034377038614009</v>
       </c>
       <c r="I231">
-        <v>5.0422933933356839</v>
+        <v>6.7362326844028324</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -7168,25 +7235,25 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>0.48683298050513812</v>
+        <v>0.84243600384535355</v>
       </c>
       <c r="E232">
-        <v>6.43494882292201</v>
+        <v>2.872440648471112</v>
       </c>
       <c r="F232">
-        <v>5.4092553389459841E-2</v>
+        <v>9.360400042726158E-2</v>
       </c>
       <c r="G232">
-        <v>8.2499343883615461E-2</v>
+        <v>3.68261621598861E-2</v>
       </c>
       <c r="H232">
-        <v>5.4092553389459841</v>
+        <v>9.3604000427261589</v>
       </c>
       <c r="I232">
-        <v>8.2499343883615452</v>
+        <v>3.68261621598861</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -7200,22 +7267,22 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0.48683298050513812</v>
+        <v>0.11822589869479221</v>
       </c>
       <c r="E233">
-        <v>6.43494882292201</v>
+        <v>4.5424264643674803</v>
       </c>
       <c r="F233">
-        <v>5.4092553389459841E-2</v>
+        <v>1.3136210966087971E-2</v>
       </c>
       <c r="G233">
-        <v>8.2499343883615461E-2</v>
+        <v>5.8236236722659977E-2</v>
       </c>
       <c r="H233">
-        <v>5.4092553389459841</v>
+        <v>1.3136210966087969</v>
       </c>
       <c r="I233">
-        <v>8.2499343883615452</v>
+        <v>5.8236236722659989</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -7229,22 +7296,22 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1.607602093132227</v>
+        <v>1.714759317117398E-4</v>
       </c>
       <c r="E234">
-        <v>7.2455217797487137</v>
+        <v>4.4526214614939477</v>
       </c>
       <c r="F234">
-        <v>0.17862245479246969</v>
+        <v>1.9052881301329091E-5</v>
       </c>
       <c r="G234">
-        <v>9.2891304868573221E-2</v>
+        <v>5.7084890531973742E-2</v>
       </c>
       <c r="H234">
-        <v>17.862245479246969</v>
+        <v>1.905288130132909E-3</v>
       </c>
       <c r="I234">
-        <v>9.2891304868573226</v>
+        <v>5.7084890531973738</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -7258,22 +7325,22 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1.333586434002044</v>
+        <v>0.63835443161175753</v>
       </c>
       <c r="E235">
-        <v>2.36989764584402</v>
+        <v>0.30949439970220283</v>
       </c>
       <c r="F235">
-        <v>0.14817627044467141</v>
+        <v>7.0928270179084207E-2</v>
       </c>
       <c r="G235">
-        <v>3.0383303151846449E-2</v>
+        <v>3.967876919258928E-3</v>
       </c>
       <c r="H235">
-        <v>14.817627044467139</v>
+        <v>7.0928270179084212</v>
       </c>
       <c r="I235">
-        <v>3.0383303151846448</v>
+        <v>0.3967876919258928</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -7287,22 +7354,22 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>9.3093933475261181E-2</v>
+        <v>0.14179073669232339</v>
       </c>
       <c r="E236">
-        <v>5.2542614938342069</v>
+        <v>8.2917901793749138E-2</v>
       </c>
       <c r="F236">
-        <v>1.0343770386140091E-2</v>
+        <v>1.575452629914709E-2</v>
       </c>
       <c r="G236">
-        <v>6.736232684402832E-2</v>
+        <v>1.063050022996781E-3</v>
       </c>
       <c r="H236">
-        <v>1.034377038614009</v>
+        <v>1.5754526299147089</v>
       </c>
       <c r="I236">
-        <v>6.7362326844028324</v>
+        <v>0.1063050022996781</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7316,22 +7383,22 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>0.84243600384535355</v>
+        <v>0.29683528213471089</v>
       </c>
       <c r="E237">
-        <v>2.872440648471112</v>
+        <v>2.2822705792915201</v>
       </c>
       <c r="F237">
-        <v>9.360400042726158E-2</v>
+        <v>3.2981698014967857E-2</v>
       </c>
       <c r="G237">
-        <v>3.68261621598861E-2</v>
+        <v>2.9259879221686162E-2</v>
       </c>
       <c r="H237">
-        <v>9.3604000427261589</v>
+        <v>3.298169801496786</v>
       </c>
       <c r="I237">
-        <v>3.68261621598861</v>
+        <v>2.9259879221686158</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -7342,25 +7409,25 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <v>0.11822589869479221</v>
+        <v>1.17980961271128</v>
       </c>
       <c r="E238">
-        <v>4.5424264643674803</v>
+        <v>3.289593837123832</v>
       </c>
       <c r="F238">
-        <v>1.3136210966087971E-2</v>
+        <v>0.13108995696792</v>
       </c>
       <c r="G238">
-        <v>5.8236236722659977E-2</v>
+        <v>4.217427996312606E-2</v>
       </c>
       <c r="H238">
-        <v>1.3136210966087969</v>
+        <v>13.108995696792</v>
       </c>
       <c r="I238">
-        <v>5.8236236722659989</v>
+        <v>4.2174279963126056</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -7371,25 +7438,25 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
-        <v>1.714759317117398E-4</v>
+        <v>1.17980961271128</v>
       </c>
       <c r="E239">
-        <v>4.4526214614939477</v>
+        <v>3.289593837123832</v>
       </c>
       <c r="F239">
-        <v>1.9052881301329091E-5</v>
+        <v>0.13108995696792</v>
       </c>
       <c r="G239">
-        <v>5.7084890531973742E-2</v>
+        <v>4.217427996312606E-2</v>
       </c>
       <c r="H239">
-        <v>1.905288130132909E-3</v>
+        <v>13.108995696792</v>
       </c>
       <c r="I239">
-        <v>5.7084890531973738</v>
+        <v>4.2174279963126056</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -7400,25 +7467,25 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240">
-        <v>0.63835443161175753</v>
+        <v>0.58113593322013024</v>
       </c>
       <c r="E240">
-        <v>0.30949439970220283</v>
+        <v>4.8056990675220852E-2</v>
       </c>
       <c r="F240">
-        <v>7.0928270179084207E-2</v>
+        <v>6.457065924668115E-2</v>
       </c>
       <c r="G240">
-        <v>3.967876919258928E-3</v>
+        <v>6.1611526506688552E-4</v>
       </c>
       <c r="H240">
-        <v>7.0928270179084212</v>
+        <v>6.4570659246681146</v>
       </c>
       <c r="I240">
-        <v>0.3967876919258928</v>
+        <v>6.1611526506688552E-2</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -7429,25 +7496,25 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>0.14179073669232339</v>
+        <v>0.32889733426916662</v>
       </c>
       <c r="E241">
-        <v>8.2917901793749138E-2</v>
+        <v>7.7044661710783728</v>
       </c>
       <c r="F241">
-        <v>1.575452629914709E-2</v>
+        <v>3.6544148252129698E-2</v>
       </c>
       <c r="G241">
-        <v>1.063050022996781E-3</v>
+        <v>9.8775207321517566E-2</v>
       </c>
       <c r="H241">
-        <v>1.5754526299147089</v>
+        <v>3.65441482521297</v>
       </c>
       <c r="I241">
-        <v>0.1063050022996781</v>
+        <v>9.8775207321517566</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -7458,25 +7525,25 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
-        <v>0.29683528213471089</v>
+        <v>0.63446599953884331</v>
       </c>
       <c r="E242">
-        <v>2.2822705792915201</v>
+        <v>0.45892742084024007</v>
       </c>
       <c r="F242">
-        <v>3.2981698014967857E-2</v>
+        <v>7.0496222170982614E-2</v>
       </c>
       <c r="G242">
-        <v>2.9259879221686162E-2</v>
+        <v>5.8836848825671861E-3</v>
       </c>
       <c r="H242">
-        <v>3.298169801496786</v>
+        <v>7.0496222170982614</v>
       </c>
       <c r="I242">
-        <v>2.9259879221686158</v>
+        <v>0.58836848825671861</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -7490,22 +7557,22 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>1.17980961271128</v>
+        <v>7.26407816477046E-2</v>
       </c>
       <c r="E243">
-        <v>3.289593837123832</v>
+        <v>0.45892742084024007</v>
       </c>
       <c r="F243">
-        <v>0.13108995696792</v>
+        <v>8.0711979608560358E-3</v>
       </c>
       <c r="G243">
-        <v>4.217427996312606E-2</v>
+        <v>5.8836848825671861E-3</v>
       </c>
       <c r="H243">
-        <v>13.108995696792</v>
+        <v>0.80711979608560358</v>
       </c>
       <c r="I243">
-        <v>4.2174279963126056</v>
+        <v>0.58836848825671861</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -7516,25 +7583,25 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>1.17980961271128</v>
+        <v>0.3737264552873345</v>
       </c>
       <c r="E244">
-        <v>3.289593837123832</v>
+        <v>1.5130082403826319</v>
       </c>
       <c r="F244">
-        <v>0.13108995696792</v>
+        <v>4.1525161698592772E-2</v>
       </c>
       <c r="G244">
-        <v>4.217427996312606E-2</v>
+        <v>1.9397541543367151E-2</v>
       </c>
       <c r="H244">
-        <v>13.108995696792</v>
+        <v>4.1525161698592772</v>
       </c>
       <c r="I244">
-        <v>4.2174279963126056</v>
+        <v>1.9397541543367149</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -7545,25 +7612,25 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>0.58113593322013024</v>
+        <v>0.4991058419366512</v>
       </c>
       <c r="E245">
-        <v>4.8056990675220852E-2</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F245">
-        <v>6.457065924668115E-2</v>
+        <v>5.5456204659627861E-2</v>
       </c>
       <c r="G245">
-        <v>6.1611526506688552E-4</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H245">
-        <v>6.4570659246681146</v>
+        <v>5.5456204659627861</v>
       </c>
       <c r="I245">
-        <v>6.1611526506688552E-2</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -7577,22 +7644,22 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>0.32889733426916662</v>
+        <v>6.5328938592109864E-2</v>
       </c>
       <c r="E246">
-        <v>7.7044661710783728</v>
+        <v>2.81421797080678</v>
       </c>
       <c r="F246">
-        <v>3.6544148252129698E-2</v>
+        <v>7.2587709546788606E-3</v>
       </c>
       <c r="G246">
-        <v>9.8775207321517566E-2</v>
+        <v>3.6079717574445842E-2</v>
       </c>
       <c r="H246">
-        <v>3.65441482521297</v>
+        <v>0.72587709546788615</v>
       </c>
       <c r="I246">
-        <v>9.8775207321517566</v>
+        <v>3.607971757444584</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -7603,25 +7670,25 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>0.63446599953884331</v>
+        <v>0.28387056910282032</v>
       </c>
       <c r="E247">
-        <v>0.45892742084024007</v>
+        <v>4.1419579966274753</v>
       </c>
       <c r="F247">
-        <v>7.0496222170982614E-2</v>
+        <v>3.1541174344757783E-2</v>
       </c>
       <c r="G247">
-        <v>5.8836848825671861E-3</v>
+        <v>5.3102025597788087E-2</v>
       </c>
       <c r="H247">
-        <v>7.0496222170982614</v>
+        <v>3.1541174344757779</v>
       </c>
       <c r="I247">
-        <v>0.58836848825671861</v>
+        <v>5.3102025597788094</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -7635,22 +7702,22 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>7.26407816477046E-2</v>
+        <v>4.2106852292443257E-2</v>
       </c>
       <c r="E248">
-        <v>0.45892742084024007</v>
+        <v>8.7585469906207649</v>
       </c>
       <c r="F248">
-        <v>8.0711979608560358E-3</v>
+        <v>4.6785391436048318E-3</v>
       </c>
       <c r="G248">
-        <v>5.8836848825671861E-3</v>
+        <v>0.1122890639823175</v>
       </c>
       <c r="H248">
-        <v>0.80711979608560358</v>
+        <v>0.46785391436048318</v>
       </c>
       <c r="I248">
-        <v>0.58836848825671861</v>
+        <v>11.22890639823175</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -7664,22 +7731,22 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>0.3737264552873345</v>
+        <v>1.341572780725391</v>
       </c>
       <c r="E249">
-        <v>1.5130082403826319</v>
+        <v>0.45892742084024718</v>
       </c>
       <c r="F249">
-        <v>4.1525161698592772E-2</v>
+        <v>0.14906364230282121</v>
       </c>
       <c r="G249">
-        <v>1.9397541543367151E-2</v>
+        <v>5.8836848825672972E-3</v>
       </c>
       <c r="H249">
-        <v>4.1525161698592772</v>
+        <v>14.90636423028212</v>
       </c>
       <c r="I249">
-        <v>1.9397541543367149</v>
+        <v>0.58836848825672972</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -7690,25 +7757,25 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>0.4991058419366512</v>
+        <v>0.13460465224614809</v>
       </c>
       <c r="E250">
-        <v>3.2181528636301731</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F250">
-        <v>5.5456204659627861E-2</v>
+        <v>1.4956072471794261E-2</v>
       </c>
       <c r="G250">
-        <v>4.1258370046540649E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H250">
-        <v>5.5456204659627861</v>
+        <v>1.4956072471794259</v>
       </c>
       <c r="I250">
-        <v>4.1258370046540644</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -7722,22 +7789,22 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>6.5328938592109864E-2</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E251">
-        <v>2.81421797080678</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F251">
-        <v>7.2587709546788606E-3</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G251">
-        <v>3.6079717574445842E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H251">
-        <v>0.72587709546788615</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I251">
-        <v>3.607971757444584</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -7751,22 +7818,22 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>0.28387056910282032</v>
+        <v>0.15630786905569491</v>
       </c>
       <c r="E252">
-        <v>4.1419579966274753</v>
+        <v>10.441777322335669</v>
       </c>
       <c r="F252">
-        <v>3.1541174344757783E-2</v>
+        <v>1.7367541006188311E-2</v>
       </c>
       <c r="G252">
-        <v>5.3102025597788087E-2</v>
+        <v>0.1338689400299444</v>
       </c>
       <c r="H252">
-        <v>3.1541174344757779</v>
+        <v>1.736754100618831</v>
       </c>
       <c r="I252">
-        <v>5.3102025597788094</v>
+        <v>13.38689400299444</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -7780,22 +7847,22 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>4.2106852292443257E-2</v>
+        <v>0.52032449516945167</v>
       </c>
       <c r="E253">
-        <v>8.7585469906207649</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F253">
-        <v>4.6785391436048318E-3</v>
+        <v>5.7813832796605742E-2</v>
       </c>
       <c r="G253">
-        <v>0.1122890639823175</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H253">
-        <v>0.46785391436048318</v>
+        <v>5.7813832796605737</v>
       </c>
       <c r="I253">
-        <v>11.22890639823175</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -7806,25 +7873,25 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>1.341572780725391</v>
+        <v>0.1014633252536417</v>
       </c>
       <c r="E254">
-        <v>0.45892742084024718</v>
+        <v>6.7343121054571</v>
       </c>
       <c r="F254">
-        <v>0.14906364230282121</v>
+        <v>1.1273702805960181E-2</v>
       </c>
       <c r="G254">
-        <v>5.8836848825672972E-3</v>
+        <v>8.6337334685347489E-2</v>
       </c>
       <c r="H254">
-        <v>14.90636423028212</v>
+        <v>1.127370280596018</v>
       </c>
       <c r="I254">
-        <v>0.58836848825672972</v>
+        <v>8.6337334685347482</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -7838,22 +7905,22 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>0.13460465224614809</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E255">
-        <v>1.581888871074085</v>
+        <v>5.436232862889149</v>
       </c>
       <c r="F255">
-        <v>1.4956072471794261E-2</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G255">
-        <v>2.0280626552231899E-2</v>
+        <v>6.9695293113963441E-2</v>
       </c>
       <c r="H255">
-        <v>1.4956072471794259</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I255">
-        <v>2.0280626552231902</v>
+        <v>6.9695293113963439</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -7864,25 +7931,25 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>0.53615668077161294</v>
+        <v>0.52359811610174889</v>
       </c>
       <c r="E256">
-        <v>4.5349594279593362</v>
+        <v>5.8001293853566116</v>
       </c>
       <c r="F256">
-        <v>5.957296453017924E-2</v>
+        <v>5.817756845574984E-2</v>
       </c>
       <c r="G256">
-        <v>5.8140505486658167E-2</v>
+        <v>7.4360633145597585E-2</v>
       </c>
       <c r="H256">
-        <v>5.957296453017924</v>
+        <v>5.8177568455749844</v>
       </c>
       <c r="I256">
-        <v>5.8140505486658167</v>
+        <v>7.4360633145597594</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -7893,25 +7960,25 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257">
-        <v>0.15630786905569491</v>
+        <v>0.13460465224614809</v>
       </c>
       <c r="E257">
-        <v>10.441777322335669</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F257">
-        <v>1.7367541006188311E-2</v>
+        <v>1.4956072471794261E-2</v>
       </c>
       <c r="G257">
-        <v>0.1338689400299444</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H257">
-        <v>1.736754100618831</v>
+        <v>1.4956072471794259</v>
       </c>
       <c r="I257">
-        <v>13.38689400299444</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -7925,19 +7992,19 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>0.52032449516945167</v>
+        <v>0.59770949358044323</v>
       </c>
       <c r="E258">
         <v>2.483162306003905</v>
       </c>
       <c r="F258">
-        <v>5.7813832796605742E-2</v>
+        <v>6.6412165953382563E-2</v>
       </c>
       <c r="G258">
         <v>3.1835414179537218E-2</v>
       </c>
       <c r="H258">
-        <v>5.7813832796605737</v>
+        <v>6.641216595338256</v>
       </c>
       <c r="I258">
         <v>3.1835414179537218</v>
@@ -7951,25 +8018,25 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>0.1014633252536417</v>
+        <v>0.75029091456365604</v>
       </c>
       <c r="E259">
-        <v>6.7343121054571</v>
+        <v>7.9994820628543799</v>
       </c>
       <c r="F259">
-        <v>1.1273702805960181E-2</v>
+        <v>8.336565717373956E-2</v>
       </c>
       <c r="G259">
-        <v>8.6337334685347489E-2</v>
+        <v>0.10255746234428691</v>
       </c>
       <c r="H259">
-        <v>1.127370280596018</v>
+        <v>8.336565717373956</v>
       </c>
       <c r="I259">
-        <v>8.6337334685347482</v>
+        <v>10.25574623442869</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -7980,25 +8047,25 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>7.30518394373183E-2</v>
+        <v>0.75029091456365604</v>
       </c>
       <c r="E260">
-        <v>5.436232862889149</v>
+        <v>7.9994820628543799</v>
       </c>
       <c r="F260">
-        <v>8.1168710485909346E-3</v>
+        <v>8.336565717373956E-2</v>
       </c>
       <c r="G260">
-        <v>6.9695293113963441E-2</v>
+        <v>0.10255746234428691</v>
       </c>
       <c r="H260">
-        <v>0.81168710485909346</v>
+        <v>8.336565717373956</v>
       </c>
       <c r="I260">
-        <v>6.9695293113963439</v>
+        <v>10.25574623442869</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -8009,25 +8076,25 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>0.52359811610174889</v>
+        <v>0.1386046819359876</v>
       </c>
       <c r="E261">
-        <v>5.8001293853566116</v>
+        <v>0.12901995076782311</v>
       </c>
       <c r="F261">
-        <v>5.817756845574984E-2</v>
+        <v>1.540052021510974E-2</v>
       </c>
       <c r="G261">
-        <v>7.4360633145597585E-2</v>
+        <v>1.65410193292076E-3</v>
       </c>
       <c r="H261">
-        <v>5.8177568455749844</v>
+        <v>1.5400520215109741</v>
       </c>
       <c r="I261">
-        <v>7.4360633145597594</v>
+        <v>0.16541019329207601</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -8038,25 +8105,25 @@
         <v>0</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>0.13460465224614809</v>
+        <v>1.009068089640492</v>
       </c>
       <c r="E262">
-        <v>1.581888871074085</v>
+        <v>1.827429966172275</v>
       </c>
       <c r="F262">
-        <v>1.4956072471794261E-2</v>
+        <v>0.1121186766267213</v>
       </c>
       <c r="G262">
-        <v>2.0280626552231899E-2</v>
+        <v>2.3428589309900969E-2</v>
       </c>
       <c r="H262">
-        <v>1.4956072471794259</v>
+        <v>11.21186766267213</v>
       </c>
       <c r="I262">
-        <v>2.0280626552231902</v>
+        <v>2.3428589309900971</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -8067,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>0.59770949358044323</v>
+        <v>0.14859323698725341</v>
       </c>
       <c r="E263">
-        <v>2.483162306003905</v>
+        <v>0.1451631483465059</v>
       </c>
       <c r="F263">
-        <v>6.6412165953382563E-2</v>
+        <v>1.6510359665250381E-2</v>
       </c>
       <c r="G263">
-        <v>3.1835414179537218E-2</v>
+        <v>1.861066004442372E-3</v>
       </c>
       <c r="H263">
-        <v>6.641216595338256</v>
+        <v>1.651035966525038</v>
       </c>
       <c r="I263">
-        <v>3.1835414179537218</v>
+        <v>0.18610660044423721</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,25 +8163,25 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>0.75029091456365604</v>
+        <v>0.93594373288136934</v>
       </c>
       <c r="E264">
-        <v>7.9994820628543799</v>
+        <v>10.771684792408079</v>
       </c>
       <c r="F264">
-        <v>8.336565717373956E-2</v>
+        <v>0.1039937480979299</v>
       </c>
       <c r="G264">
-        <v>0.10255746234428691</v>
+        <v>0.13809852297959091</v>
       </c>
       <c r="H264">
-        <v>8.336565717373956</v>
+        <v>10.39937480979299</v>
       </c>
       <c r="I264">
-        <v>10.25574623442869</v>
+        <v>13.80985229795909</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -8154,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>0.1386046819359876</v>
+        <v>4.3184133377108143E-2</v>
       </c>
       <c r="E266">
-        <v>0.12901995076782311</v>
+        <v>7.9994820628543799</v>
       </c>
       <c r="F266">
-        <v>1.540052021510974E-2</v>
+        <v>4.7982370419009102E-3</v>
       </c>
       <c r="G266">
-        <v>1.65410193292076E-3</v>
+        <v>0.10255746234428691</v>
       </c>
       <c r="H266">
-        <v>1.5400520215109741</v>
+        <v>0.47982370419009102</v>
       </c>
       <c r="I266">
-        <v>0.16541019329207601</v>
+        <v>10.25574623442869</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -8183,25 +8250,25 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267">
-        <v>1.009068089640492</v>
+        <v>0.63460465224614815</v>
       </c>
       <c r="E267">
-        <v>1.827429966172275</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F267">
-        <v>0.1121186766267213</v>
+        <v>7.0511628027349782E-2</v>
       </c>
       <c r="G267">
-        <v>2.3428589309900969E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H267">
-        <v>11.21186766267213</v>
+        <v>7.0511628027349786</v>
       </c>
       <c r="I267">
-        <v>2.3428589309900971</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -8215,22 +8282,22 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0.14859323698725341</v>
+        <v>0.51989310667275079</v>
       </c>
       <c r="E268">
-        <v>0.1451631483465059</v>
+        <v>7.3900444452887299</v>
       </c>
       <c r="F268">
-        <v>1.6510359665250381E-2</v>
+        <v>5.7765900741416742E-2</v>
       </c>
       <c r="G268">
-        <v>1.861066004442372E-3</v>
+        <v>9.4744159554983706E-2</v>
       </c>
       <c r="H268">
-        <v>1.651035966525038</v>
+        <v>5.7765900741416747</v>
       </c>
       <c r="I268">
-        <v>0.18610660044423721</v>
+        <v>9.4744159554983707</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -8241,25 +8308,25 @@
         <v>0</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>0.93594373288136934</v>
+        <v>0.3393637070003086</v>
       </c>
       <c r="E269">
-        <v>10.771684792408079</v>
+        <v>1.217992348606626</v>
       </c>
       <c r="F269">
-        <v>0.1039937480979299</v>
+        <v>3.7707078555589857E-2</v>
       </c>
       <c r="G269">
-        <v>0.13809852297959091</v>
+        <v>1.5615286520597779E-2</v>
       </c>
       <c r="H269">
-        <v>10.39937480979299</v>
+        <v>3.7707078555589861</v>
       </c>
       <c r="I269">
-        <v>13.80985229795909</v>
+        <v>1.561528652059778</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -8270,25 +8337,25 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270">
-        <v>0.75029091456365604</v>
+        <v>1.016570663496253</v>
       </c>
       <c r="E270">
-        <v>7.9994820628543799</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F270">
-        <v>8.336565717373956E-2</v>
+        <v>0.1129522959440281</v>
       </c>
       <c r="G270">
-        <v>0.10255746234428691</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H270">
-        <v>8.336565717373956</v>
+        <v>11.29522959440281</v>
       </c>
       <c r="I270">
-        <v>10.25574623442869</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -8299,25 +8366,25 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271">
-        <v>4.3184133377108143E-2</v>
+        <v>1.016570663496253</v>
       </c>
       <c r="E271">
-        <v>7.9994820628543799</v>
+        <v>6.7343121054571</v>
       </c>
       <c r="F271">
-        <v>4.7982370419009102E-3</v>
+        <v>0.1129522959440281</v>
       </c>
       <c r="G271">
-        <v>0.10255746234428691</v>
+        <v>8.6337334685347489E-2</v>
       </c>
       <c r="H271">
-        <v>0.47982370419009102</v>
+        <v>11.29522959440281</v>
       </c>
       <c r="I271">
-        <v>10.25574623442869</v>
+        <v>8.6337334685347482</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -8331,22 +8398,22 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>0.63460465224614815</v>
+        <v>0.30152991995724321</v>
       </c>
       <c r="E272">
-        <v>1.581888871074085</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F272">
-        <v>7.0511628027349782E-2</v>
+        <v>3.3503324439693671E-2</v>
       </c>
       <c r="G272">
-        <v>2.0280626552231899E-2</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H272">
-        <v>7.0511628027349786</v>
+        <v>3.3503324439693669</v>
       </c>
       <c r="I272">
-        <v>2.0280626552231902</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -8357,25 +8424,25 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273">
-        <v>0.51989310667275079</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E273">
-        <v>7.3900444452887299</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F273">
-        <v>5.7765900741416742E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G273">
-        <v>9.4744159554983706E-2</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H273">
-        <v>5.7765900741416747</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I273">
-        <v>9.4744159554983707</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -8386,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>0.3393637070003086</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E274">
-        <v>1.217992348606626</v>
+        <v>8.6000106050373262</v>
       </c>
       <c r="F274">
-        <v>3.7707078555589857E-2</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G274">
-        <v>1.5615286520597779E-2</v>
+        <v>0.1102565462184272</v>
       </c>
       <c r="H274">
-        <v>3.7707078555589861</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I274">
-        <v>1.561528652059778</v>
+        <v>11.025654621842721</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -8418,22 +8485,22 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>1.016570663496253</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E275">
-        <v>11.70063671746491</v>
+        <v>5.4362328628891534</v>
       </c>
       <c r="F275">
-        <v>0.1129522959440281</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G275">
-        <v>0.15000816304442191</v>
+        <v>6.9695293113963497E-2</v>
       </c>
       <c r="H275">
-        <v>11.29522959440281</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I275">
-        <v>15.000816304442189</v>
+        <v>6.9695293113963501</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -8447,22 +8514,22 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>1.016570663496253</v>
+        <v>0.63460465224614815</v>
       </c>
       <c r="E276">
-        <v>6.7343121054571</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F276">
-        <v>0.1129522959440281</v>
+        <v>7.0511628027349782E-2</v>
       </c>
       <c r="G276">
-        <v>8.6337334685347489E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H276">
-        <v>11.29522959440281</v>
+        <v>7.0511628027349786</v>
       </c>
       <c r="I276">
-        <v>8.6337334685347482</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -8476,22 +8543,22 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>0.30152991995724321</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E277">
-        <v>11.70063671746491</v>
+        <v>9.5012840399671425</v>
       </c>
       <c r="F277">
-        <v>3.3503324439693671E-2</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G277">
-        <v>0.15000816304442191</v>
+        <v>0.1218113338457326</v>
       </c>
       <c r="H277">
-        <v>3.3503324439693669</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I277">
-        <v>15.000816304442189</v>
+        <v>12.181133384573259</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -8505,22 +8572,22 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>0.15419066952150781</v>
+        <v>0.63460465224614815</v>
       </c>
       <c r="E278">
-        <v>3.781241548571856</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F278">
-        <v>1.7132296613500849E-2</v>
+        <v>7.0511628027349782E-2</v>
       </c>
       <c r="G278">
-        <v>4.8477455750921217E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H278">
-        <v>1.713229661350085</v>
+        <v>7.0511628027349786</v>
       </c>
       <c r="I278">
-        <v>4.8477455750921212</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -8534,22 +8601,22 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>7.30518394373183E-2</v>
+        <v>0.59770949358044323</v>
       </c>
       <c r="E279">
-        <v>8.6000106050373262</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F279">
-        <v>8.1168710485909346E-3</v>
+        <v>6.6412165953382563E-2</v>
       </c>
       <c r="G279">
-        <v>0.1102565462184272</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H279">
-        <v>0.81168710485909346</v>
+        <v>6.641216595338256</v>
       </c>
       <c r="I279">
-        <v>11.025654621842721</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -8563,22 +8630,22 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>7.30518394373183E-2</v>
+        <v>0.3458093304784926</v>
       </c>
       <c r="E280">
-        <v>5.4362328628891534</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F280">
-        <v>8.1168710485909346E-3</v>
+        <v>3.8423258942054728E-2</v>
       </c>
       <c r="G280">
-        <v>6.9695293113963497E-2</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H280">
-        <v>0.81168710485909346</v>
+        <v>3.842325894205473</v>
       </c>
       <c r="I280">
-        <v>6.9695293113963501</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -8592,22 +8659,22 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>0.63460465224614815</v>
+        <v>0.53615668077161294</v>
       </c>
       <c r="E281">
-        <v>1.581888871074085</v>
+        <v>4.5349594279593362</v>
       </c>
       <c r="F281">
-        <v>7.0511628027349782E-2</v>
+        <v>5.957296453017924E-2</v>
       </c>
       <c r="G281">
-        <v>2.0280626552231899E-2</v>
+        <v>5.8140505486658167E-2</v>
       </c>
       <c r="H281">
-        <v>7.0511628027349786</v>
+        <v>5.957296453017924</v>
       </c>
       <c r="I281">
-        <v>2.0280626552231902</v>
+        <v>5.8140505486658167</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -8621,22 +8688,22 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>0.53615668077161294</v>
+        <v>0.55346582216195861</v>
       </c>
       <c r="E282">
-        <v>9.5012840399671425</v>
+        <v>7.6355855403869199</v>
       </c>
       <c r="F282">
-        <v>5.957296453017924E-2</v>
+        <v>6.1496202462439857E-2</v>
       </c>
       <c r="G282">
-        <v>0.1218113338457326</v>
+        <v>9.7892122312652818E-2</v>
       </c>
       <c r="H282">
-        <v>5.957296453017924</v>
+        <v>6.1496202462439866</v>
       </c>
       <c r="I282">
-        <v>12.181133384573259</v>
+        <v>9.7892122312652816</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -8650,22 +8717,22 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>0.63460465224614815</v>
+        <v>0.36164151608065342</v>
       </c>
       <c r="E283">
-        <v>1.581888871074085</v>
+        <v>10.79936328253509</v>
       </c>
       <c r="F283">
-        <v>7.0511628027349782E-2</v>
+        <v>4.0182390675628177E-2</v>
       </c>
       <c r="G283">
-        <v>2.0280626552231899E-2</v>
+        <v>0.1384533754171165</v>
       </c>
       <c r="H283">
-        <v>7.0511628027349786</v>
+        <v>4.0182390675628179</v>
       </c>
       <c r="I283">
-        <v>2.0280626552231902</v>
+        <v>13.84533754171165</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -8679,22 +8746,22 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>0.59770949358044323</v>
+        <v>0.63460465224614815</v>
       </c>
       <c r="E284">
-        <v>2.483162306003905</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F284">
-        <v>6.6412165953382563E-2</v>
+        <v>7.0511628027349782E-2</v>
       </c>
       <c r="G284">
-        <v>3.1835414179537218E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H284">
-        <v>6.641216595338256</v>
+        <v>7.0511628027349786</v>
       </c>
       <c r="I284">
-        <v>3.1835414179537218</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -8737,22 +8804,22 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>0.53615668077161294</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E286">
-        <v>4.5349594279593362</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F286">
-        <v>5.957296453017924E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G286">
-        <v>5.8140505486658167E-2</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H286">
-        <v>5.957296453017924</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I286">
-        <v>5.8140505486658167</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -8766,22 +8833,22 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>0.55346582216195861</v>
+        <v>0.40736214328732251</v>
       </c>
       <c r="E287">
-        <v>7.6355855403869199</v>
+        <v>3.236880185391382</v>
       </c>
       <c r="F287">
-        <v>6.1496202462439857E-2</v>
+        <v>4.526246036525805E-2</v>
       </c>
       <c r="G287">
-        <v>9.7892122312652818E-2</v>
+        <v>4.149846391527412E-2</v>
       </c>
       <c r="H287">
-        <v>6.1496202462439866</v>
+        <v>4.526246036525805</v>
       </c>
       <c r="I287">
-        <v>9.7892122312652816</v>
+        <v>4.1498463915274124</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -8795,22 +8862,22 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>0.36164151608065342</v>
+        <v>0.1014633252536417</v>
       </c>
       <c r="E288">
-        <v>10.79936328253509</v>
+        <v>11.70063671746491</v>
       </c>
       <c r="F288">
-        <v>4.0182390675628177E-2</v>
+        <v>1.1273702805960181E-2</v>
       </c>
       <c r="G288">
-        <v>0.1384533754171165</v>
+        <v>0.15000816304442191</v>
       </c>
       <c r="H288">
-        <v>4.0182390675628179</v>
+        <v>1.127370280596018</v>
       </c>
       <c r="I288">
-        <v>13.84533754171165</v>
+        <v>15.000816304442189</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -8824,22 +8891,22 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>0.63460465224614815</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E289">
-        <v>1.581888871074085</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F289">
-        <v>7.0511628027349782E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G289">
-        <v>2.0280626552231899E-2</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H289">
-        <v>7.0511628027349786</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I289">
-        <v>2.0280626552231902</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -8853,22 +8920,22 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>0.3458093304784926</v>
+        <v>1.097709493580443</v>
       </c>
       <c r="E290">
-        <v>3.781241548571856</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F290">
-        <v>3.8423258942054728E-2</v>
+        <v>0.1219677215089381</v>
       </c>
       <c r="G290">
-        <v>4.8477455750921217E-2</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H290">
-        <v>3.842325894205473</v>
+        <v>12.196772150893811</v>
       </c>
       <c r="I290">
-        <v>4.8477455750921212</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -8882,22 +8949,22 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>0.15419066952150781</v>
+        <v>1.097709493580443</v>
       </c>
       <c r="E291">
-        <v>3.781241548571856</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F291">
-        <v>1.7132296613500849E-2</v>
+        <v>0.1219677215089381</v>
       </c>
       <c r="G291">
-        <v>4.8477455750921217E-2</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H291">
-        <v>1.713229661350085</v>
+        <v>12.196772150893811</v>
       </c>
       <c r="I291">
-        <v>4.8477455750921212</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -8911,22 +8978,22 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>0.40736214328732251</v>
+        <v>0.13460465224614809</v>
       </c>
       <c r="E292">
-        <v>3.236880185391382</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F292">
-        <v>4.526246036525805E-2</v>
+        <v>1.4956072471794261E-2</v>
       </c>
       <c r="G292">
-        <v>4.149846391527412E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H292">
-        <v>4.526246036525805</v>
+        <v>1.4956072471794259</v>
       </c>
       <c r="I292">
-        <v>4.1498463915274124</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -8940,22 +9007,22 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>0.1014633252536417</v>
+        <v>0.3458093304784926</v>
       </c>
       <c r="E293">
-        <v>11.70063671746491</v>
+        <v>3.781241548571856</v>
       </c>
       <c r="F293">
-        <v>1.1273702805960181E-2</v>
+        <v>3.8423258942054728E-2</v>
       </c>
       <c r="G293">
-        <v>0.15000816304442191</v>
+        <v>4.8477455750921217E-2</v>
       </c>
       <c r="H293">
-        <v>1.127370280596018</v>
+        <v>3.842325894205473</v>
       </c>
       <c r="I293">
-        <v>15.000816304442189</v>
+        <v>4.8477455750921212</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -8969,19 +9036,19 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>0.15419066952150781</v>
+        <v>0.3458093304784926</v>
       </c>
       <c r="E294">
         <v>3.781241548571856</v>
       </c>
       <c r="F294">
-        <v>1.7132296613500849E-2</v>
+        <v>3.8423258942054728E-2</v>
       </c>
       <c r="G294">
         <v>4.8477455750921217E-2</v>
       </c>
       <c r="H294">
-        <v>1.713229661350085</v>
+        <v>3.842325894205473</v>
       </c>
       <c r="I294">
         <v>4.8477455750921212</v>
@@ -8998,22 +9065,22 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>1.097709493580443</v>
+        <v>7.30518394373183E-2</v>
       </c>
       <c r="E295">
-        <v>2.483162306003905</v>
+        <v>5.436232862889149</v>
       </c>
       <c r="F295">
-        <v>0.1219677215089381</v>
+        <v>8.1168710485909346E-3</v>
       </c>
       <c r="G295">
-        <v>3.1835414179537218E-2</v>
+        <v>6.9695293113963441E-2</v>
       </c>
       <c r="H295">
-        <v>12.196772150893811</v>
+        <v>0.81168710485909346</v>
       </c>
       <c r="I295">
-        <v>3.1835414179537218</v>
+        <v>6.9695293113963439</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -9024,25 +9091,25 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>1.097709493580443</v>
+        <v>0.78733745981411651</v>
       </c>
       <c r="E296">
-        <v>2.483162306003905</v>
+        <v>6.5591943131229939</v>
       </c>
       <c r="F296">
-        <v>0.1219677215089381</v>
+        <v>8.7481939979346279E-2</v>
       </c>
       <c r="G296">
-        <v>3.1835414179537218E-2</v>
+        <v>8.409223478362815E-2</v>
       </c>
       <c r="H296">
-        <v>12.196772150893811</v>
+        <v>8.7481939979346279</v>
       </c>
       <c r="I296">
-        <v>3.1835414179537218</v>
+        <v>8.409223478362815</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -9085,22 +9152,22 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>0.3458093304784926</v>
+        <v>0.63460465224614815</v>
       </c>
       <c r="E298">
-        <v>3.781241548571856</v>
+        <v>1.581888871074085</v>
       </c>
       <c r="F298">
-        <v>3.8423258942054728E-2</v>
+        <v>7.0511628027349782E-2</v>
       </c>
       <c r="G298">
-        <v>4.8477455750921217E-2</v>
+        <v>2.0280626552231899E-2</v>
       </c>
       <c r="H298">
-        <v>3.842325894205473</v>
+        <v>7.0511628027349786</v>
       </c>
       <c r="I298">
-        <v>4.8477455750921212</v>
+        <v>2.0280626552231902</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -9114,19 +9181,19 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>0.3458093304784926</v>
+        <v>0.15419066952150781</v>
       </c>
       <c r="E299">
         <v>3.781241548571856</v>
       </c>
       <c r="F299">
-        <v>3.8423258942054728E-2</v>
+        <v>1.7132296613500849E-2</v>
       </c>
       <c r="G299">
         <v>4.8477455750921217E-2</v>
       </c>
       <c r="H299">
-        <v>3.842325894205473</v>
+        <v>1.713229661350085</v>
       </c>
       <c r="I299">
         <v>4.8477455750921212</v>
@@ -9143,22 +9210,22 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>7.30518394373183E-2</v>
+        <v>1.097709493580443</v>
       </c>
       <c r="E300">
-        <v>5.436232862889149</v>
+        <v>2.483162306003905</v>
       </c>
       <c r="F300">
-        <v>8.1168710485909346E-3</v>
+        <v>0.1219677215089381</v>
       </c>
       <c r="G300">
-        <v>6.9695293113963441E-2</v>
+        <v>3.1835414179537218E-2</v>
       </c>
       <c r="H300">
-        <v>0.81168710485909346</v>
+        <v>12.196772150893811</v>
       </c>
       <c r="I300">
-        <v>6.9695293113963439</v>
+        <v>3.1835414179537218</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -9169,25 +9236,25 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>0.78733745981411651</v>
+        <v>0.4991058419366512</v>
       </c>
       <c r="E301">
-        <v>6.5591943131229939</v>
+        <v>3.2181528636301731</v>
       </c>
       <c r="F301">
-        <v>8.7481939979346279E-2</v>
+        <v>5.5456204659627861E-2</v>
       </c>
       <c r="G301">
-        <v>8.409223478362815E-2</v>
+        <v>4.1258370046540649E-2</v>
       </c>
       <c r="H301">
-        <v>8.7481939979346279</v>
+        <v>5.5456204659627861</v>
       </c>
       <c r="I301">
-        <v>8.409223478362815</v>
+        <v>4.1258370046540644</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -9198,25 +9265,25 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302">
-        <v>0.13460465224614809</v>
+        <v>1.704879964418176</v>
       </c>
       <c r="E302">
-        <v>1.581888871074085</v>
+        <v>9.6817488806801535</v>
       </c>
       <c r="F302">
-        <v>1.4956072471794261E-2</v>
+        <v>0.18943110715757519</v>
       </c>
       <c r="G302">
-        <v>2.0280626552231899E-2</v>
+        <v>0.1241249856497456</v>
       </c>
       <c r="H302">
-        <v>1.4956072471794259</v>
+        <v>18.94311071575752</v>
       </c>
       <c r="I302">
-        <v>2.0280626552231902</v>
+        <v>12.412498564974561</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -9230,180 +9297,23 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>0.63460465224614815</v>
+        <v>0</v>
       </c>
       <c r="E303">
-        <v>1.581888871074085</v>
+        <v>0</v>
       </c>
       <c r="F303">
-        <v>7.0511628027349782E-2</v>
+        <v>0</v>
       </c>
       <c r="G303">
-        <v>2.0280626552231899E-2</v>
+        <v>0</v>
       </c>
       <c r="H303">
-        <v>7.0511628027349786</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>2.0280626552231902</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
-        <v>0.15419066952150781</v>
-      </c>
-      <c r="E304">
-        <v>3.781241548571856</v>
-      </c>
-      <c r="F304">
-        <v>1.7132296613500849E-2</v>
-      </c>
-      <c r="G304">
-        <v>4.8477455750921217E-2</v>
-      </c>
-      <c r="H304">
-        <v>1.713229661350085</v>
-      </c>
-      <c r="I304">
-        <v>4.8477455750921212</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-      <c r="C305">
-        <v>0</v>
-      </c>
-      <c r="D305">
-        <v>1.097709493580443</v>
-      </c>
-      <c r="E305">
-        <v>2.483162306003905</v>
-      </c>
-      <c r="F305">
-        <v>0.1219677215089381</v>
-      </c>
-      <c r="G305">
-        <v>3.1835414179537218E-2</v>
-      </c>
-      <c r="H305">
-        <v>12.196772150893811</v>
-      </c>
-      <c r="I305">
-        <v>3.1835414179537218</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-      <c r="C306">
-        <v>2</v>
-      </c>
-      <c r="D306">
-        <v>0.4991058419366512</v>
-      </c>
-      <c r="E306">
-        <v>3.2181528636301731</v>
-      </c>
-      <c r="F306">
-        <v>5.5456204659627861E-2</v>
-      </c>
-      <c r="G306">
-        <v>4.1258370046540649E-2</v>
-      </c>
-      <c r="H306">
-        <v>5.5456204659627861</v>
-      </c>
-      <c r="I306">
-        <v>4.1258370046540644</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>1.704879964418176</v>
-      </c>
-      <c r="E307">
-        <v>9.6817488806801535</v>
-      </c>
-      <c r="F307">
-        <v>0.18943110715757519</v>
-      </c>
-      <c r="G307">
-        <v>0.1241249856497456</v>
-      </c>
-      <c r="H307">
-        <v>18.94311071575752</v>
-      </c>
-      <c r="I307">
-        <v>12.412498564974561</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-      <c r="C308">
-        <v>0</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308">
-        <v>0</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
-      <c r="G308">
-        <v>0</v>
-      </c>
-      <c r="H308">
-        <v>0</v>
-      </c>
-      <c r="I308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A312" s="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
